--- a/Code/Results/Cases/Case_3_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.1680677256715</v>
+        <v>19.16806772567143</v>
       </c>
       <c r="C2">
-        <v>13.22396248847898</v>
+        <v>13.2239624884791</v>
       </c>
       <c r="D2">
-        <v>9.614828087790572</v>
+        <v>9.61482808779069</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.31175634987044</v>
+        <v>63.31175634987078</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>30.09866346406664</v>
+        <v>30.09866346406668</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.73755237210178</v>
+        <v>17.73755237210164</v>
       </c>
       <c r="C3">
-        <v>12.28609007910251</v>
+        <v>12.2860900791025</v>
       </c>
       <c r="D3">
-        <v>9.091870757416249</v>
+        <v>9.091870757416233</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.15802362150779</v>
+        <v>59.15802362150785</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.70767309588012</v>
+        <v>27.70767309588011</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.82219190211267</v>
+        <v>16.82219190211269</v>
       </c>
       <c r="C4">
-        <v>11.68895734574678</v>
+        <v>11.68895734574702</v>
       </c>
       <c r="D4">
-        <v>8.765608902272028</v>
+        <v>8.765608902272023</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.53591497426461</v>
+        <v>56.53591497426499</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>26.19911818612991</v>
+        <v>26.19911818612999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.43949579393816</v>
+        <v>16.43949579393806</v>
       </c>
       <c r="C5">
-        <v>11.44000153374632</v>
+        <v>11.4400015337464</v>
       </c>
       <c r="D5">
-        <v>8.631288107279353</v>
+        <v>8.631288107279465</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.44889749085758</v>
+        <v>55.44889749085764</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.57287677372607</v>
+        <v>25.57287677372608</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.37535470181967</v>
+        <v>16.37535470181952</v>
       </c>
       <c r="C6">
-        <v>11.39831602011669</v>
+        <v>11.39831602011647</v>
       </c>
       <c r="D6">
-        <v>8.608900484500511</v>
+        <v>8.608900484500639</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.26727491267318</v>
+        <v>55.26727491267343</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.46816133364312</v>
+        <v>25.46816133364317</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.81707038109478</v>
+        <v>16.81707038109488</v>
       </c>
       <c r="C7">
-        <v>11.68562292337544</v>
+        <v>11.68562292337547</v>
       </c>
       <c r="D7">
-        <v>8.763802998588629</v>
+        <v>8.763802998588609</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.52133031498603</v>
+        <v>56.52133031498627</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>26.19072059107311</v>
+        <v>26.19072059107313</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.68227258290277</v>
+        <v>18.68227258290286</v>
       </c>
       <c r="C8">
-        <v>12.90482552733132</v>
+        <v>12.90482552733119</v>
       </c>
       <c r="D8">
-        <v>9.435530187722231</v>
+        <v>9.43553018772216</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>61.8940586480978</v>
+        <v>61.89405864809788</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.28178497908295</v>
+        <v>29.28178497908315</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.0655297824421</v>
+        <v>22.0655297824423</v>
       </c>
       <c r="C9">
-        <v>15.14130314801861</v>
+        <v>15.14130314801846</v>
       </c>
       <c r="D9">
-        <v>10.71738681091164</v>
+        <v>10.71738681091168</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.89951985037463</v>
+        <v>71.89951985037497</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>35.09700192190216</v>
+        <v>35.09700192190229</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.41617545702965</v>
+        <v>24.41617545702954</v>
       </c>
       <c r="C10">
-        <v>16.71486551075791</v>
+        <v>16.71486551075801</v>
       </c>
       <c r="D10">
         <v>11.65008996785648</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>79.01216941512278</v>
+        <v>79.012169415123</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>39.36032388560901</v>
+        <v>39.36032388560902</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.46550992078864</v>
+        <v>25.46550992078858</v>
       </c>
       <c r="C11">
-        <v>17.42275887730679</v>
+        <v>17.42275887730682</v>
       </c>
       <c r="D11">
-        <v>12.07703958997203</v>
+        <v>12.07703958997213</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>82.24668327970967</v>
+        <v>82.24668327970991</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>41.34645038747275</v>
+        <v>41.3464503874727</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.86099833793206</v>
+        <v>25.86099833793215</v>
       </c>
       <c r="C12">
-        <v>17.6904543227394</v>
+        <v>17.6904543227392</v>
       </c>
       <c r="D12">
-        <v>12.23967798356071</v>
+        <v>12.2396779835608</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>83.4974516084157</v>
+        <v>83.49745160841616</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>42.11152195281274</v>
+        <v>42.11152195281281</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,16 +833,16 @@
         <v>25.77588734341418</v>
       </c>
       <c r="C13">
-        <v>17.63280334387021</v>
+        <v>17.63280334387023</v>
       </c>
       <c r="D13">
-        <v>12.20459645079571</v>
+        <v>12.20459645079576</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>83.22801729720192</v>
+        <v>83.22801729720177</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.94604395034035</v>
+        <v>41.9460439503403</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.49807785139789</v>
+        <v>25.49807785139781</v>
       </c>
       <c r="C14">
-        <v>17.44478462432039</v>
+        <v>17.44478462432036</v>
       </c>
       <c r="D14">
-        <v>12.09039655441717</v>
+        <v>12.09039655441724</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>82.3495657322899</v>
+        <v>82.34956573229</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>41.40908785454181</v>
+        <v>41.4090878545418</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,16 +909,16 @@
         <v>25.32770180354107</v>
       </c>
       <c r="C15">
-        <v>17.32959587618295</v>
+        <v>17.32959587618292</v>
       </c>
       <c r="D15">
-        <v>12.0205920298916</v>
+        <v>12.02059202989166</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>81.81157373974098</v>
+        <v>81.81157373974131</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>41.08210660008428</v>
+        <v>41.08210660008434</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.34727701110575</v>
+        <v>24.34727701110568</v>
       </c>
       <c r="C16">
-        <v>16.668505327702</v>
+        <v>16.66850532770186</v>
       </c>
       <c r="D16">
-        <v>11.62228612422741</v>
+        <v>11.62228612422736</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.80196057561325</v>
+        <v>78.80196057561287</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>39.23194379980613</v>
+        <v>39.23194379980595</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.7413394085135</v>
+        <v>23.7413394085138</v>
       </c>
       <c r="C17">
-        <v>16.26141111310035</v>
+        <v>16.26141111310067</v>
       </c>
       <c r="D17">
-        <v>11.37896919970402</v>
+        <v>11.37896919970409</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.95773739993894</v>
+        <v>76.95773739993955</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>38.11260357012677</v>
+        <v>38.11260357012702</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.39086702798157</v>
+        <v>23.39086702798162</v>
       </c>
       <c r="C18">
-        <v>16.02645972115117</v>
+        <v>16.02645972115116</v>
       </c>
       <c r="D18">
         <v>11.23922541027635</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.89472244244332</v>
+        <v>75.89472244244338</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.4727020930844</v>
+        <v>37.47270209308424</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.27184092135093</v>
+        <v>23.27184092135091</v>
       </c>
       <c r="C19">
-        <v>15.94675090488849</v>
+        <v>15.94675090488869</v>
       </c>
       <c r="D19">
         <v>11.19193148069202</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>37.25656268363002</v>
+        <v>37.25656268362998</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.80603814447279</v>
+        <v>23.8060381444727</v>
       </c>
       <c r="C20">
-        <v>16.30482493269777</v>
+        <v>16.30482493269794</v>
       </c>
       <c r="D20">
-        <v>11.40484587554145</v>
+        <v>11.40484587554144</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>77.1542695002092</v>
+        <v>77.15426950020915</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>38.23131682005131</v>
+        <v>38.23131682005121</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.57971877382284</v>
+        <v>25.57971877382327</v>
       </c>
       <c r="C21">
-        <v>17.50001317778386</v>
+        <v>17.50001317778415</v>
       </c>
       <c r="D21">
-        <v>12.12390799709191</v>
+        <v>12.12390799709213</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>82.60756147074621</v>
+        <v>82.6075614707479</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>41.56638954830162</v>
+        <v>41.56638954830169</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.72868123504689</v>
+        <v>26.72868123504673</v>
       </c>
       <c r="C22">
-        <v>18.27949983061488</v>
+        <v>18.27949983061489</v>
       </c>
       <c r="D22">
-        <v>12.59991596708917</v>
+        <v>12.59991596708901</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>86.2528890574693</v>
+        <v>86.25288905746817</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>43.82685674089131</v>
+        <v>43.82685674089125</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.11599234806812</v>
+        <v>26.11599234806793</v>
       </c>
       <c r="C23">
-        <v>17.86331475387772</v>
+        <v>17.86331475387767</v>
       </c>
       <c r="D23">
-        <v>12.34505148659557</v>
+        <v>12.34505148659533</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>84.30556472537046</v>
+        <v>84.30556472536949</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>42.61014472539127</v>
+        <v>42.61014472539114</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.77679449262889</v>
+        <v>23.77679449262891</v>
       </c>
       <c r="C24">
-        <v>16.28520042713961</v>
+        <v>16.28520042713937</v>
       </c>
       <c r="D24">
-        <v>11.39314662747991</v>
+        <v>11.39314662748</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>77.06542615634667</v>
+        <v>77.06542615634682</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>38.17763570804033</v>
+        <v>38.17763570804036</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.17665795246287</v>
+        <v>21.17665795246303</v>
       </c>
       <c r="C25">
-        <v>14.55054821295209</v>
+        <v>14.55054821295192</v>
       </c>
       <c r="D25">
-        <v>10.37338791454156</v>
+        <v>10.37338791454165</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.24260523905924</v>
+        <v>69.24260523905976</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33.53804324582277</v>
+        <v>33.53804324582283</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.16806772567143</v>
+        <v>19.1680677256715</v>
       </c>
       <c r="C2">
-        <v>13.2239624884791</v>
+        <v>13.22396248847898</v>
       </c>
       <c r="D2">
-        <v>9.61482808779069</v>
+        <v>9.614828087790572</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.31175634987078</v>
+        <v>63.31175634987044</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>30.09866346406668</v>
+        <v>30.09866346406664</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.73755237210164</v>
+        <v>17.73755237210178</v>
       </c>
       <c r="C3">
-        <v>12.2860900791025</v>
+        <v>12.28609007910251</v>
       </c>
       <c r="D3">
-        <v>9.091870757416233</v>
+        <v>9.091870757416249</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.15802362150785</v>
+        <v>59.15802362150779</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.70767309588011</v>
+        <v>27.70767309588012</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.82219190211269</v>
+        <v>16.82219190211267</v>
       </c>
       <c r="C4">
-        <v>11.68895734574702</v>
+        <v>11.68895734574678</v>
       </c>
       <c r="D4">
-        <v>8.765608902272023</v>
+        <v>8.765608902272028</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.53591497426499</v>
+        <v>56.53591497426461</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>26.19911818612999</v>
+        <v>26.19911818612991</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.43949579393806</v>
+        <v>16.43949579393816</v>
       </c>
       <c r="C5">
-        <v>11.4400015337464</v>
+        <v>11.44000153374632</v>
       </c>
       <c r="D5">
-        <v>8.631288107279465</v>
+        <v>8.631288107279353</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.44889749085764</v>
+        <v>55.44889749085758</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.57287677372608</v>
+        <v>25.57287677372607</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.37535470181952</v>
+        <v>16.37535470181967</v>
       </c>
       <c r="C6">
-        <v>11.39831602011647</v>
+        <v>11.39831602011669</v>
       </c>
       <c r="D6">
-        <v>8.608900484500639</v>
+        <v>8.608900484500511</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.26727491267343</v>
+        <v>55.26727491267318</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.46816133364317</v>
+        <v>25.46816133364312</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.81707038109488</v>
+        <v>16.81707038109478</v>
       </c>
       <c r="C7">
-        <v>11.68562292337547</v>
+        <v>11.68562292337544</v>
       </c>
       <c r="D7">
-        <v>8.763802998588609</v>
+        <v>8.763802998588629</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.52133031498627</v>
+        <v>56.52133031498603</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>26.19072059107313</v>
+        <v>26.19072059107311</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.68227258290286</v>
+        <v>18.68227258290277</v>
       </c>
       <c r="C8">
-        <v>12.90482552733119</v>
+        <v>12.90482552733132</v>
       </c>
       <c r="D8">
-        <v>9.43553018772216</v>
+        <v>9.435530187722231</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>61.89405864809788</v>
+        <v>61.8940586480978</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.28178497908315</v>
+        <v>29.28178497908295</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.0655297824423</v>
+        <v>22.0655297824421</v>
       </c>
       <c r="C9">
-        <v>15.14130314801846</v>
+        <v>15.14130314801861</v>
       </c>
       <c r="D9">
-        <v>10.71738681091168</v>
+        <v>10.71738681091164</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.89951985037497</v>
+        <v>71.89951985037463</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>35.09700192190229</v>
+        <v>35.09700192190216</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.41617545702954</v>
+        <v>24.41617545702965</v>
       </c>
       <c r="C10">
-        <v>16.71486551075801</v>
+        <v>16.71486551075791</v>
       </c>
       <c r="D10">
         <v>11.65008996785648</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>79.012169415123</v>
+        <v>79.01216941512278</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>39.36032388560902</v>
+        <v>39.36032388560901</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.46550992078858</v>
+        <v>25.46550992078864</v>
       </c>
       <c r="C11">
-        <v>17.42275887730682</v>
+        <v>17.42275887730679</v>
       </c>
       <c r="D11">
-        <v>12.07703958997213</v>
+        <v>12.07703958997203</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>82.24668327970991</v>
+        <v>82.24668327970967</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>41.3464503874727</v>
+        <v>41.34645038747275</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.86099833793215</v>
+        <v>25.86099833793206</v>
       </c>
       <c r="C12">
-        <v>17.6904543227392</v>
+        <v>17.6904543227394</v>
       </c>
       <c r="D12">
-        <v>12.2396779835608</v>
+        <v>12.23967798356071</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>83.49745160841616</v>
+        <v>83.4974516084157</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>42.11152195281281</v>
+        <v>42.11152195281274</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,16 +833,16 @@
         <v>25.77588734341418</v>
       </c>
       <c r="C13">
-        <v>17.63280334387023</v>
+        <v>17.63280334387021</v>
       </c>
       <c r="D13">
-        <v>12.20459645079576</v>
+        <v>12.20459645079571</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>83.22801729720177</v>
+        <v>83.22801729720192</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.9460439503403</v>
+        <v>41.94604395034035</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.49807785139781</v>
+        <v>25.49807785139789</v>
       </c>
       <c r="C14">
-        <v>17.44478462432036</v>
+        <v>17.44478462432039</v>
       </c>
       <c r="D14">
-        <v>12.09039655441724</v>
+        <v>12.09039655441717</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>82.34956573229</v>
+        <v>82.3495657322899</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>41.4090878545418</v>
+        <v>41.40908785454181</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,16 +909,16 @@
         <v>25.32770180354107</v>
       </c>
       <c r="C15">
-        <v>17.32959587618292</v>
+        <v>17.32959587618295</v>
       </c>
       <c r="D15">
-        <v>12.02059202989166</v>
+        <v>12.0205920298916</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>81.81157373974131</v>
+        <v>81.81157373974098</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>41.08210660008434</v>
+        <v>41.08210660008428</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.34727701110568</v>
+        <v>24.34727701110575</v>
       </c>
       <c r="C16">
-        <v>16.66850532770186</v>
+        <v>16.668505327702</v>
       </c>
       <c r="D16">
-        <v>11.62228612422736</v>
+        <v>11.62228612422741</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.80196057561287</v>
+        <v>78.80196057561325</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>39.23194379980595</v>
+        <v>39.23194379980613</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.7413394085138</v>
+        <v>23.7413394085135</v>
       </c>
       <c r="C17">
-        <v>16.26141111310067</v>
+        <v>16.26141111310035</v>
       </c>
       <c r="D17">
-        <v>11.37896919970409</v>
+        <v>11.37896919970402</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.95773739993955</v>
+        <v>76.95773739993894</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>38.11260357012702</v>
+        <v>38.11260357012677</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.39086702798162</v>
+        <v>23.39086702798157</v>
       </c>
       <c r="C18">
-        <v>16.02645972115116</v>
+        <v>16.02645972115117</v>
       </c>
       <c r="D18">
         <v>11.23922541027635</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.89472244244338</v>
+        <v>75.89472244244332</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.47270209308424</v>
+        <v>37.4727020930844</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.27184092135091</v>
+        <v>23.27184092135093</v>
       </c>
       <c r="C19">
-        <v>15.94675090488869</v>
+        <v>15.94675090488849</v>
       </c>
       <c r="D19">
         <v>11.19193148069202</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>37.25656268362998</v>
+        <v>37.25656268363002</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.8060381444727</v>
+        <v>23.80603814447279</v>
       </c>
       <c r="C20">
-        <v>16.30482493269794</v>
+        <v>16.30482493269777</v>
       </c>
       <c r="D20">
-        <v>11.40484587554144</v>
+        <v>11.40484587554145</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>77.15426950020915</v>
+        <v>77.1542695002092</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>38.23131682005121</v>
+        <v>38.23131682005131</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.57971877382327</v>
+        <v>25.57971877382284</v>
       </c>
       <c r="C21">
-        <v>17.50001317778415</v>
+        <v>17.50001317778386</v>
       </c>
       <c r="D21">
-        <v>12.12390799709213</v>
+        <v>12.12390799709191</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>82.6075614707479</v>
+        <v>82.60756147074621</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>41.56638954830169</v>
+        <v>41.56638954830162</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.72868123504673</v>
+        <v>26.72868123504689</v>
       </c>
       <c r="C22">
-        <v>18.27949983061489</v>
+        <v>18.27949983061488</v>
       </c>
       <c r="D22">
-        <v>12.59991596708901</v>
+        <v>12.59991596708917</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>86.25288905746817</v>
+        <v>86.2528890574693</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>43.82685674089125</v>
+        <v>43.82685674089131</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.11599234806793</v>
+        <v>26.11599234806812</v>
       </c>
       <c r="C23">
-        <v>17.86331475387767</v>
+        <v>17.86331475387772</v>
       </c>
       <c r="D23">
-        <v>12.34505148659533</v>
+        <v>12.34505148659557</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>84.30556472536949</v>
+        <v>84.30556472537046</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>42.61014472539114</v>
+        <v>42.61014472539127</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.77679449262891</v>
+        <v>23.77679449262889</v>
       </c>
       <c r="C24">
-        <v>16.28520042713937</v>
+        <v>16.28520042713961</v>
       </c>
       <c r="D24">
-        <v>11.39314662748</v>
+        <v>11.39314662747991</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>77.06542615634682</v>
+        <v>77.06542615634667</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>38.17763570804036</v>
+        <v>38.17763570804033</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.17665795246303</v>
+        <v>21.17665795246287</v>
       </c>
       <c r="C25">
-        <v>14.55054821295192</v>
+        <v>14.55054821295209</v>
       </c>
       <c r="D25">
-        <v>10.37338791454165</v>
+        <v>10.37338791454156</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.24260523905976</v>
+        <v>69.24260523905924</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33.53804324582283</v>
+        <v>33.53804324582277</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.1680677256715</v>
+        <v>18.98894455766492</v>
       </c>
       <c r="C2">
-        <v>13.22396248847898</v>
+        <v>12.99031710948029</v>
       </c>
       <c r="D2">
-        <v>9.614828087790572</v>
+        <v>9.684317691007763</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.31175634987044</v>
+        <v>63.35299655820739</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.037879926563741</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,30 +445,33 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>30.09866346406664</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>30.05474090649504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.73755237210178</v>
+        <v>17.56575983969143</v>
       </c>
       <c r="C3">
-        <v>12.28609007910251</v>
+        <v>12.05512428010398</v>
       </c>
       <c r="D3">
-        <v>9.091870757416249</v>
+        <v>9.169987628279218</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.15802362150779</v>
+        <v>59.23879913273726</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.053316811894631</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,30 +486,33 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.70767309588012</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>27.66911721154023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.82219190211267</v>
+        <v>16.65506553390069</v>
       </c>
       <c r="C4">
-        <v>11.68895734574678</v>
+        <v>11.45938113991568</v>
       </c>
       <c r="D4">
-        <v>8.765608902272028</v>
+        <v>8.849418224943676</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.53591497426461</v>
+        <v>56.64309885881126</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.062864210976721</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,30 +527,33 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>26.19911818612991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>26.16365842964664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.43949579393816</v>
+        <v>16.2743203662992</v>
       </c>
       <c r="C5">
-        <v>11.44000153374632</v>
+        <v>11.21092495309956</v>
       </c>
       <c r="D5">
-        <v>8.631288107279353</v>
+        <v>8.717520378014095</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.44889749085758</v>
+        <v>55.56742591839593</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.066780576633401</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,30 +568,33 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.57287677372607</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>25.53864401142232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.37535470181967</v>
+        <v>16.21050643970895</v>
       </c>
       <c r="C6">
-        <v>11.39831602011669</v>
+        <v>11.16931826741268</v>
       </c>
       <c r="D6">
-        <v>8.608900484500511</v>
+        <v>8.695541406413106</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.26727491267318</v>
+        <v>55.38772364044643</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.067432662542374</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -594,30 +609,33 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.46816133364312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>25.4341305955468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.81707038109478</v>
+        <v>16.6499701134849</v>
       </c>
       <c r="C7">
-        <v>11.68562292337544</v>
+        <v>11.45605373014261</v>
       </c>
       <c r="D7">
-        <v>8.763802998588629</v>
+        <v>8.847644575866823</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.52133031498603</v>
+        <v>56.62866477508697</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.062916914089521</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -632,30 +650,33 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>26.19072059107311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>26.15527750521844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.68227258290277</v>
+        <v>18.50564763349691</v>
       </c>
       <c r="C8">
-        <v>12.90482552733132</v>
+        <v>12.67215636867344</v>
       </c>
       <c r="D8">
-        <v>9.435530187722231</v>
+        <v>9.507915132511961</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>61.8940586480978</v>
+        <v>61.94851609681675</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.043193636689733</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,30 +691,33 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.28178497908295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>29.23976472266345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.0655297824421</v>
+        <v>21.87114748487589</v>
       </c>
       <c r="C9">
-        <v>15.14130314801861</v>
+        <v>14.90051610210424</v>
       </c>
       <c r="D9">
-        <v>10.71738681091164</v>
+        <v>10.77019883993806</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.89951985037463</v>
+        <v>71.8650370060376</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.004611023413081</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,30 +732,33 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>35.09700192190216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>35.03951688754438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.41617545702965</v>
+        <v>24.20865783178894</v>
       </c>
       <c r="C10">
-        <v>16.71486551075791</v>
+        <v>16.46666964743362</v>
       </c>
       <c r="D10">
-        <v>11.65008996785648</v>
+        <v>11.68981925237341</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>79.01216941512278</v>
+        <v>78.91795014474442</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.975523797788926</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,30 +773,33 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>39.36032388560901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>39.28772365226676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.46550992078864</v>
+        <v>25.25179817900304</v>
       </c>
       <c r="C11">
-        <v>17.42275887730679</v>
+        <v>17.17076852921968</v>
       </c>
       <c r="D11">
-        <v>12.07703958997203</v>
+        <v>12.11094091964038</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>82.24668327970967</v>
+        <v>82.10556408878155</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.961882012196716</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -784,30 +814,33 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>41.34645038747275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>41.26523133946237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.86099833793206</v>
+        <v>25.64488589366848</v>
       </c>
       <c r="C12">
-        <v>17.6904543227394</v>
+        <v>17.43695051523847</v>
       </c>
       <c r="D12">
-        <v>12.23967798356071</v>
+        <v>12.27137017585873</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>83.4974516084157</v>
+        <v>83.32459012466182</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.956628225218427</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -822,30 +855,33 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>42.11152195281274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>42.02664626735043</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.77588734341418</v>
+        <v>25.56029485410356</v>
       </c>
       <c r="C13">
-        <v>17.63280334387021</v>
+        <v>17.37962921497349</v>
       </c>
       <c r="D13">
-        <v>12.20459645079571</v>
+        <v>12.23676493096854</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>83.22801729720192</v>
+        <v>83.05724593940417</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.95776420096646</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -860,30 +896,33 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.94604395034035</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>41.86197651138022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.49807785139789</v>
+        <v>25.28416987283427</v>
       </c>
       <c r="C14">
-        <v>17.44478462432039</v>
+        <v>17.19267141126671</v>
       </c>
       <c r="D14">
-        <v>12.09039655441717</v>
+        <v>12.12411632640936</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>82.3495657322899</v>
+        <v>82.20488660092946</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.961451743126847</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,30 +937,33 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>41.40908785454181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>41.32757698014872</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.32770180354107</v>
+        <v>25.11481761386077</v>
       </c>
       <c r="C15">
-        <v>17.32959587618295</v>
+        <v>17.07812195552408</v>
       </c>
       <c r="D15">
-        <v>12.0205920298916</v>
+        <v>12.05526098880085</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>81.81157373974098</v>
+        <v>81.68555239747903</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.963697993680888</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -936,30 +978,33 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>41.08210660008428</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>41.00210482944957</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.34727701110575</v>
+        <v>24.14015793757876</v>
       </c>
       <c r="C16">
-        <v>16.668505327702</v>
+        <v>16.42054772205325</v>
       </c>
       <c r="D16">
-        <v>11.62228612422741</v>
+        <v>11.66239723277662</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.80196057561325</v>
+        <v>78.70949727089763</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.976404798155244</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -974,30 +1019,33 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>39.23194379980613</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>39.15986139613377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.7413394085135</v>
+        <v>23.53768650325703</v>
       </c>
       <c r="C17">
-        <v>16.26141111310035</v>
+        <v>16.01549287132256</v>
       </c>
       <c r="D17">
-        <v>11.37896919970402</v>
+        <v>11.42243860004403</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.95773739993894</v>
+        <v>76.88067977385205</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.984077096129564</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1012,30 +1060,33 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>38.11260357012677</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>38.0448550284029</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.39086702798157</v>
+        <v>23.18918895174842</v>
       </c>
       <c r="C18">
-        <v>16.02645972115117</v>
+        <v>15.7816757894455</v>
       </c>
       <c r="D18">
-        <v>11.23922541027635</v>
+        <v>11.28463956294352</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.89472244244332</v>
+        <v>75.82655731272023</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.988453577682223</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,30 +1101,33 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.4727020930844</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>37.40729391578883</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.27184092135093</v>
+        <v>23.07082885538508</v>
       </c>
       <c r="C19">
-        <v>15.94675090488849</v>
+        <v>15.70234476145506</v>
       </c>
       <c r="D19">
-        <v>11.19193148069202</v>
+        <v>11.23800684045068</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.53432003890259</v>
+        <v>75.46917405594566</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.989929866808102</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,30 +1142,33 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>37.25656268363002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>37.19192387066145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.80603814447279</v>
+        <v>23.60201835408624</v>
       </c>
       <c r="C20">
-        <v>16.30482493269777</v>
+        <v>16.05869369261234</v>
       </c>
       <c r="D20">
-        <v>11.40484587554145</v>
+        <v>11.44795653894743</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>77.1542695002092</v>
+        <v>77.07556935229336</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.983264317953027</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1126,30 +1183,33 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>38.23131682005131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>38.16312348041326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.57971877382284</v>
+        <v>25.36531774029397</v>
       </c>
       <c r="C21">
-        <v>17.50001317778386</v>
+        <v>17.24759058435113</v>
       </c>
       <c r="D21">
-        <v>12.12390799709191</v>
+        <v>12.15717237900714</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>82.60756147074621</v>
+        <v>82.45397165031321</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.960371288618519</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1164,30 +1224,33 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>41.56638954830162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>41.48413998947822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.72868123504689</v>
+        <v>26.50715615216466</v>
       </c>
       <c r="C22">
-        <v>18.27949983061488</v>
+        <v>18.02250639506583</v>
       </c>
       <c r="D22">
-        <v>12.59991596708917</v>
+        <v>12.62671567406524</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>86.2528890574693</v>
+        <v>86.05838364078991</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.944875327866925</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1202,30 +1265,33 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>43.82685674089131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>43.73298495160098</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.11599234806812</v>
+        <v>25.89831080675891</v>
       </c>
       <c r="C23">
-        <v>17.86331475387772</v>
+        <v>17.60880995505684</v>
       </c>
       <c r="D23">
-        <v>12.34505148659557</v>
+        <v>12.3753133545073</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>84.30556472537046</v>
+        <v>84.12640883418717</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.953207049407882</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1240,30 +1306,33 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>42.61014472539127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>42.5227730171408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.77679449262889</v>
+        <v>23.57294062515708</v>
       </c>
       <c r="C24">
-        <v>16.28520042713961</v>
+        <v>16.03916560133292</v>
       </c>
       <c r="D24">
-        <v>11.39314662747991</v>
+        <v>11.43641943079025</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>77.06542615634667</v>
+        <v>76.98746847377447</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.983631880145325</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,30 +1347,33 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>38.17763570804033</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>38.10964392326868</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.17665795246287</v>
+        <v>20.98704037684615</v>
       </c>
       <c r="C25">
-        <v>14.55054821295209</v>
+        <v>14.31218615256726</v>
       </c>
       <c r="D25">
-        <v>10.37338791454156</v>
+        <v>10.43122542065816</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.24260523905924</v>
+        <v>69.23092460668485</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.015110235837808</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33.53804324582277</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>33.48518818881988</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.98894455766492</v>
+        <v>25.04371795139684</v>
       </c>
       <c r="C2">
-        <v>12.99031710948029</v>
+        <v>18.41928057481276</v>
       </c>
       <c r="D2">
-        <v>9.684317691007763</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>3.516658425059892</v>
       </c>
       <c r="F2">
-        <v>63.35299655820739</v>
+        <v>20.68412635677172</v>
       </c>
       <c r="G2">
-        <v>2.037879926563741</v>
+        <v>2.054337336415345</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -438,40 +441,34 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>30.05474090649504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>15.32714036502416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.56575983969143</v>
+        <v>23.32102478264294</v>
       </c>
       <c r="C3">
-        <v>12.05512428010398</v>
+        <v>17.20860834571419</v>
       </c>
       <c r="D3">
-        <v>9.169987628279218</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>3.531865706183557</v>
       </c>
       <c r="F3">
-        <v>59.23879913273726</v>
+        <v>19.94050601210751</v>
       </c>
       <c r="G3">
-        <v>2.053316811894631</v>
+        <v>2.063754596704145</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -479,40 +476,34 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>27.66911721154023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>15.04351231081112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.65506553390069</v>
+        <v>22.20519580034183</v>
       </c>
       <c r="C4">
-        <v>11.45938113991568</v>
+        <v>16.4254001095974</v>
       </c>
       <c r="D4">
-        <v>8.849418224943676</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>3.543643871313697</v>
       </c>
       <c r="F4">
-        <v>56.64309885881126</v>
+        <v>19.52228827059553</v>
       </c>
       <c r="G4">
-        <v>2.062864210976721</v>
+        <v>2.069664925713982</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -520,40 +511,34 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>26.16365842964664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>14.90926042271397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.2743203662992</v>
+        <v>21.73571110926336</v>
       </c>
       <c r="C5">
-        <v>11.21092495309956</v>
+        <v>16.09614275212789</v>
       </c>
       <c r="D5">
-        <v>8.717520378014095</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>3.549020168598502</v>
       </c>
       <c r="F5">
-        <v>55.56742591839593</v>
+        <v>19.36146831958276</v>
       </c>
       <c r="G5">
-        <v>2.066780576633401</v>
+        <v>2.072107750704645</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -561,40 +546,34 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>25.53864401142232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>14.8641212002793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.21050643970895</v>
+        <v>21.65685636602056</v>
       </c>
       <c r="C6">
-        <v>11.16931826741268</v>
+        <v>16.04085836341427</v>
       </c>
       <c r="D6">
-        <v>8.695541406413106</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>3.549946706599306</v>
       </c>
       <c r="F6">
-        <v>55.38772364044643</v>
+        <v>19.33534224887327</v>
       </c>
       <c r="G6">
-        <v>2.067432662542374</v>
+        <v>2.07251551135573</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -602,40 +581,34 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>25.4341305955468</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>14.8571891511081</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.6499701134849</v>
+        <v>22.19892420778507</v>
       </c>
       <c r="C7">
-        <v>11.45605373014261</v>
+        <v>16.42100058370984</v>
       </c>
       <c r="D7">
-        <v>8.847644575866823</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>3.543714089762171</v>
       </c>
       <c r="F7">
-        <v>56.62866477508697</v>
+        <v>19.52008059163719</v>
       </c>
       <c r="G7">
-        <v>2.062916914089521</v>
+        <v>2.069697728878235</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -643,40 +616,34 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>26.15527750521844</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>14.90861356844299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.50564763349691</v>
+        <v>24.46168544591466</v>
       </c>
       <c r="C8">
-        <v>12.67215636867344</v>
+        <v>18.01006301334199</v>
       </c>
       <c r="D8">
-        <v>9.507915132511961</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>3.521371762006556</v>
       </c>
       <c r="F8">
-        <v>61.94851609681675</v>
+        <v>20.41975341735812</v>
       </c>
       <c r="G8">
-        <v>2.043193636689733</v>
+        <v>2.057559142057945</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -684,40 +651,34 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>29.23976472266345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>15.22080576219273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.87114748487589</v>
+        <v>28.44612215623113</v>
       </c>
       <c r="C9">
-        <v>14.90051610210424</v>
+        <v>20.81411758798385</v>
       </c>
       <c r="D9">
-        <v>10.77019883993806</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>3.498805552471589</v>
       </c>
       <c r="F9">
-        <v>71.8650370060376</v>
+        <v>22.48832104901842</v>
       </c>
       <c r="G9">
-        <v>2.004611023413081</v>
+        <v>2.034667382885892</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -725,40 +686,34 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>35.03951688754438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>16.16688976096957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.20865783178894</v>
+        <v>31.10946221482052</v>
       </c>
       <c r="C10">
-        <v>16.46666964743362</v>
+        <v>22.69081350780327</v>
       </c>
       <c r="D10">
-        <v>11.68981925237341</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>3.498130253688214</v>
       </c>
       <c r="F10">
-        <v>78.91795014474442</v>
+        <v>24.19275068560577</v>
       </c>
       <c r="G10">
-        <v>1.975523797788926</v>
+        <v>2.01824342539302</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -766,40 +721,34 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>39.28772365226676</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>17.08464696047199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.25179817900304</v>
+        <v>32.2666640339646</v>
       </c>
       <c r="C11">
-        <v>17.17076852921968</v>
+        <v>23.50654155244959</v>
       </c>
       <c r="D11">
-        <v>12.11094091964038</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>3.502036613220452</v>
       </c>
       <c r="F11">
-        <v>82.10556408878155</v>
+        <v>25.06110903235119</v>
       </c>
       <c r="G11">
-        <v>1.961882012196716</v>
+        <v>2.010816511303941</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -807,40 +756,34 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>41.26523133946237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>17.55355603221928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.64488589366848</v>
+        <v>32.69731339926988</v>
       </c>
       <c r="C12">
-        <v>17.43695051523847</v>
+        <v>23.81014488844794</v>
       </c>
       <c r="D12">
-        <v>12.27137017585873</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>3.504194498333634</v>
       </c>
       <c r="F12">
-        <v>83.32459012466182</v>
+        <v>25.44050959809517</v>
       </c>
       <c r="G12">
-        <v>1.956628225218427</v>
+        <v>2.008006642888767</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -848,40 +791,34 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>42.02664626735043</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>17.81193161702333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.56029485410356</v>
+        <v>32.60489708343513</v>
       </c>
       <c r="C13">
-        <v>17.37962921497349</v>
+        <v>23.74499108626485</v>
       </c>
       <c r="D13">
-        <v>12.23676493096854</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>3.503698326702225</v>
       </c>
       <c r="F13">
-        <v>83.05724593940417</v>
+        <v>25.35869082453198</v>
       </c>
       <c r="G13">
-        <v>1.95776420096646</v>
+        <v>2.008611751577326</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -889,40 +826,34 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>41.86197651138022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>17.75046366104256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.28416987283427</v>
+        <v>32.3022437094732</v>
       </c>
       <c r="C14">
-        <v>17.19267141126671</v>
+        <v>23.53162426935988</v>
       </c>
       <c r="D14">
-        <v>12.12411632640936</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>3.502200095784321</v>
       </c>
       <c r="F14">
-        <v>82.20488660092946</v>
+        <v>25.09227409952374</v>
       </c>
       <c r="G14">
-        <v>1.961451743126847</v>
+        <v>2.010585314496129</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -930,40 +861,34 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>41.32757698014872</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>17.56863628048227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.11481761386077</v>
+        <v>32.11588365996715</v>
       </c>
       <c r="C15">
-        <v>17.07812195552408</v>
+        <v>23.40024667981821</v>
       </c>
       <c r="D15">
-        <v>12.05526098880085</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>3.501373068292983</v>
       </c>
       <c r="F15">
-        <v>81.68555239747903</v>
+        <v>24.92939968875042</v>
       </c>
       <c r="G15">
-        <v>1.963697993680888</v>
+        <v>2.01179438772714</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -971,40 +896,34 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>41.00210482944957</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>17.49008553155787</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.14015793757876</v>
+        <v>31.03276404202775</v>
       </c>
       <c r="C16">
-        <v>16.42054772205325</v>
+        <v>22.6367531772776</v>
       </c>
       <c r="D16">
-        <v>11.66239723277662</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>3.497965776940654</v>
       </c>
       <c r="F16">
-        <v>78.70949727089763</v>
+        <v>24.14026280793517</v>
       </c>
       <c r="G16">
-        <v>1.976404798155244</v>
+        <v>2.018729367425011</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1012,40 +931,34 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>39.15986139613377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>17.05505519971366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.53768650325703</v>
+        <v>30.35455833699283</v>
       </c>
       <c r="C17">
-        <v>16.01549287132256</v>
+        <v>22.15875742923573</v>
       </c>
       <c r="D17">
-        <v>11.42243860004403</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>3.497003835345494</v>
       </c>
       <c r="F17">
-        <v>76.88067977385205</v>
+        <v>23.68477355217545</v>
       </c>
       <c r="G17">
-        <v>1.984077096129564</v>
+        <v>2.022992538074942</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1053,40 +966,34 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>38.0448550284029</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>16.80149840126703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.18918895174842</v>
+        <v>29.95933836690097</v>
       </c>
       <c r="C18">
-        <v>15.7816757894455</v>
+        <v>21.88023986515038</v>
       </c>
       <c r="D18">
-        <v>11.28463956294352</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>3.496842316756873</v>
       </c>
       <c r="F18">
-        <v>75.82655731272023</v>
+        <v>23.42656983989212</v>
       </c>
       <c r="G18">
-        <v>1.988453577682223</v>
+        <v>2.025449038554923</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1094,40 +1001,34 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>37.40729391578883</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>16.66048792910209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.07082885538508</v>
+        <v>29.82463438718165</v>
       </c>
       <c r="C19">
-        <v>15.70234476145506</v>
+        <v>21.78531774113803</v>
       </c>
       <c r="D19">
-        <v>11.23800684045068</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>3.496852835194437</v>
       </c>
       <c r="F19">
-        <v>75.46917405594566</v>
+        <v>23.33979511234059</v>
       </c>
       <c r="G19">
-        <v>1.989929866808102</v>
+        <v>2.026281639308362</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1135,40 +1036,34 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>37.19192387066145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>16.61356704545701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.60201835408624</v>
+        <v>30.42728403622732</v>
       </c>
       <c r="C20">
-        <v>16.05869369261234</v>
+        <v>22.21001098827703</v>
       </c>
       <c r="D20">
-        <v>11.44795653894743</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>3.497065189454449</v>
       </c>
       <c r="F20">
-        <v>77.07556935229336</v>
+        <v>23.73286952271353</v>
       </c>
       <c r="G20">
-        <v>1.983264317953027</v>
+        <v>2.022538283407839</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1176,40 +1071,34 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>38.16312348041326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>16.82798867611115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.36531774029397</v>
+        <v>32.39134326445568</v>
       </c>
       <c r="C21">
-        <v>17.24759058435113</v>
+        <v>23.59443754413637</v>
       </c>
       <c r="D21">
-        <v>12.15717237900714</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>3.5026211224074</v>
       </c>
       <c r="F21">
-        <v>82.45397165031321</v>
+        <v>25.17046151290435</v>
       </c>
       <c r="G21">
-        <v>1.960371288618519</v>
+        <v>2.01000559522349</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1217,40 +1106,34 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>41.48413998947822</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>17.60911890782861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.50715615216466</v>
+        <v>33.63105603676911</v>
       </c>
       <c r="C22">
-        <v>18.02250639506583</v>
+        <v>24.46846933353938</v>
       </c>
       <c r="D22">
-        <v>12.62671567406524</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>3.510247932683205</v>
       </c>
       <c r="F22">
-        <v>86.05838364078991</v>
+        <v>26.27930933942446</v>
       </c>
       <c r="G22">
-        <v>1.944875327866925</v>
+        <v>2.001827439189725</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1258,40 +1141,34 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>43.73298495160098</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>18.44305797388355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.89831080675891</v>
+        <v>32.97332348925516</v>
       </c>
       <c r="C23">
-        <v>17.60880995505684</v>
+        <v>24.00473666698867</v>
       </c>
       <c r="D23">
-        <v>12.3753133545073</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>3.505785438759625</v>
       </c>
       <c r="F23">
-        <v>84.12640883418717</v>
+        <v>25.6861635680568</v>
       </c>
       <c r="G23">
-        <v>1.953207049407882</v>
+        <v>2.006192512981393</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1299,40 +1176,34 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>42.5227730171408</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>17.99658653074904</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.57294062515708</v>
+        <v>30.39442130785826</v>
       </c>
       <c r="C24">
-        <v>16.03916560133292</v>
+        <v>22.18685082695472</v>
       </c>
       <c r="D24">
-        <v>11.43641943079025</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>3.497036237178502</v>
       </c>
       <c r="F24">
-        <v>76.98746847377447</v>
+        <v>23.71111392839785</v>
       </c>
       <c r="G24">
-        <v>1.983631880145325</v>
+        <v>2.022743634381233</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1340,40 +1211,34 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>38.10964392326868</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>16.81599760363284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.98704037684615</v>
+        <v>27.41551516007543</v>
       </c>
       <c r="C25">
-        <v>14.31218615256726</v>
+        <v>20.08831330341882</v>
       </c>
       <c r="D25">
-        <v>10.43122542065816</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>3.502351968446228</v>
       </c>
       <c r="F25">
-        <v>69.23092460668485</v>
+        <v>21.8962250115694</v>
       </c>
       <c r="G25">
-        <v>2.015110235837808</v>
+        <v>2.040778233557213</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1381,17 +1246,14 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>33.48518818881988</v>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>15.87300910102622</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_line/loading_percent.xlsx
@@ -421,34 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.04371795139684</v>
+        <v>20.96604140402746</v>
       </c>
       <c r="C2">
-        <v>18.41928057481276</v>
+        <v>15.26922679494709</v>
       </c>
       <c r="D2">
-        <v>3.516658425059892</v>
+        <v>7.531986922807982</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>20.68412635677172</v>
+        <v>20.84627861134367</v>
       </c>
       <c r="G2">
-        <v>2.054337336415345</v>
+        <v>2.076525043988782</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>11.42648150194248</v>
+      </c>
+      <c r="J2">
+        <v>6.400530035208065</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>16.28307009848552</v>
+      </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.32714036502416</v>
+        <v>14.04274910910086</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.32102478264294</v>
+        <v>19.60701841992746</v>
       </c>
       <c r="C3">
-        <v>17.20860834571419</v>
+        <v>14.3018549430062</v>
       </c>
       <c r="D3">
-        <v>3.531865706183557</v>
+        <v>7.298113678833533</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>19.94050601210751</v>
+        <v>20.5361059325485</v>
       </c>
       <c r="G3">
-        <v>2.063754596704145</v>
+        <v>2.082125181368061</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>11.76981411401576</v>
+      </c>
+      <c r="J3">
+        <v>6.435030293328565</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>15.3790662464597</v>
+      </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.04351231081112</v>
+        <v>14.01831338681486</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.20519580034183</v>
+        <v>18.72406596809751</v>
       </c>
       <c r="C4">
-        <v>16.4254001095974</v>
+        <v>13.67419617772513</v>
       </c>
       <c r="D4">
-        <v>3.543643871313697</v>
+        <v>7.153972990357907</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>19.52228827059553</v>
+        <v>20.37021469119369</v>
       </c>
       <c r="G4">
-        <v>2.069664925713982</v>
+        <v>2.085666135033378</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>11.99323558985642</v>
+      </c>
+      <c r="J4">
+        <v>6.460303764109004</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>14.80056848737366</v>
+      </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.90926042271397</v>
+        <v>14.02275227248826</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.73571110926336</v>
+        <v>18.3520283399037</v>
       </c>
       <c r="C5">
-        <v>16.09614275212789</v>
+        <v>13.40995156266461</v>
       </c>
       <c r="D5">
-        <v>3.549020168598502</v>
+        <v>7.095176504163173</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>19.36146831958276</v>
+        <v>20.30866217544275</v>
       </c>
       <c r="G5">
-        <v>2.072107750704645</v>
+        <v>2.087135560623602</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.08729831818336</v>
+      </c>
+      <c r="J5">
+        <v>6.471595047354215</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>14.55912640977959</v>
+      </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.8641212002793</v>
+        <v>14.02922309134061</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.65685636602056</v>
+        <v>18.28951263057373</v>
       </c>
       <c r="C6">
-        <v>16.04085836341427</v>
+        <v>13.36556281221483</v>
       </c>
       <c r="D6">
-        <v>3.549946706599306</v>
+        <v>7.085412274130507</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>19.33534224887327</v>
+        <v>20.29880264936356</v>
       </c>
       <c r="G6">
-        <v>2.07251551135573</v>
+        <v>2.087381175400935</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12.10309544708857</v>
+      </c>
+      <c r="J6">
+        <v>6.47352884339022</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>14.51869742633409</v>
+      </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.8571891511081</v>
+        <v>14.03057238355608</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.19892420778507</v>
+        <v>18.71909807795687</v>
       </c>
       <c r="C7">
-        <v>16.42100058370984</v>
+        <v>13.67066675813436</v>
       </c>
       <c r="D7">
-        <v>3.543714089762171</v>
+        <v>7.153180168084402</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>19.52008059163719</v>
+        <v>20.36936026216455</v>
       </c>
       <c r="G7">
-        <v>2.069697728878235</v>
+        <v>2.08568584419355</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>11.99449212711503</v>
+      </c>
+      <c r="J7">
+        <v>6.460452072156879</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>14.79733510425888</v>
+      </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.90861356844299</v>
+        <v>14.02282096858588</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.46168544591466</v>
+        <v>20.50749631247999</v>
       </c>
       <c r="C8">
-        <v>18.01006301334199</v>
+        <v>14.94266652518572</v>
       </c>
       <c r="D8">
-        <v>3.521371762006556</v>
+        <v>7.451505082050571</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>20.41975341735812</v>
+        <v>20.73416684346386</v>
       </c>
       <c r="G8">
-        <v>2.057559142057945</v>
+        <v>2.078435139307078</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>11.5421439006663</v>
+      </c>
+      <c r="J8">
+        <v>6.411554478445465</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>15.97633661220819</v>
+      </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.22080576219273</v>
+        <v>14.03015394893182</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.44612215623113</v>
+        <v>23.63158014264944</v>
       </c>
       <c r="C9">
-        <v>20.81411758798385</v>
+        <v>17.17029762976492</v>
       </c>
       <c r="D9">
-        <v>3.498805552471589</v>
+        <v>8.02908367236766</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>22.48832104901842</v>
+        <v>21.64873184435042</v>
       </c>
       <c r="G9">
-        <v>2.034667382885892</v>
+        <v>2.064995958892718</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>10.76350416282215</v>
+      </c>
+      <c r="J9">
+        <v>6.349826023100253</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>18.12888291301238</v>
+      </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.16688976096957</v>
+        <v>14.2085117662873</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.10946221482052</v>
+        <v>25.69670236735049</v>
       </c>
       <c r="C10">
-        <v>22.69081350780327</v>
+        <v>18.64584003435383</v>
       </c>
       <c r="D10">
-        <v>3.498130253688214</v>
+        <v>8.445168334687992</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>24.19275068560577</v>
+        <v>22.44642194617243</v>
       </c>
       <c r="G10">
-        <v>2.01824342539302</v>
+        <v>2.055547720116176</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>10.27149714189389</v>
+      </c>
+      <c r="J10">
+        <v>6.327758913604099</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>19.74026767171549</v>
+      </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.08464696047199</v>
+        <v>14.45196428780484</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.2666640339646</v>
+        <v>26.58707304975085</v>
       </c>
       <c r="C11">
-        <v>23.50654155244959</v>
+        <v>19.28262058538592</v>
       </c>
       <c r="D11">
-        <v>3.502036613220452</v>
+        <v>8.632015933179995</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>25.06110903235119</v>
+        <v>22.83715438529886</v>
       </c>
       <c r="G11">
-        <v>2.010816511303941</v>
+        <v>2.051330062878586</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10.06895691922608</v>
+      </c>
+      <c r="J11">
+        <v>6.323342047616806</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>20.43584095259139</v>
+      </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.55355603221928</v>
+        <v>14.58951201986983</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.69731339926988</v>
+        <v>26.91725550065282</v>
       </c>
       <c r="C12">
-        <v>23.81014488844794</v>
+        <v>19.51884732107703</v>
       </c>
       <c r="D12">
-        <v>3.504194498333634</v>
+        <v>8.702376453353791</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>25.44050959809517</v>
+        <v>22.98914400348628</v>
       </c>
       <c r="G12">
-        <v>2.008006642888767</v>
+        <v>2.04974345870065</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>9.995716069887809</v>
+      </c>
+      <c r="J12">
+        <v>6.322527131445292</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>20.69392389604619</v>
+      </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.81193161702333</v>
+        <v>14.64562597966046</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.60489708343513</v>
+        <v>26.84645407318174</v>
       </c>
       <c r="C13">
-        <v>23.74499108626485</v>
+        <v>19.46818916748706</v>
       </c>
       <c r="D13">
-        <v>3.503698326702225</v>
+        <v>8.68724124379043</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>25.35869082453198</v>
+        <v>22.95623092248304</v>
       </c>
       <c r="G13">
-        <v>2.008611751577326</v>
+        <v>2.050084711136422</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>10.01132906808295</v>
+      </c>
+      <c r="J13">
+        <v>6.322663687068234</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>20.63857636180346</v>
+      </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.75046366104256</v>
+        <v>14.63335910631443</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.3022437094732</v>
+        <v>26.6143768369389</v>
       </c>
       <c r="C14">
-        <v>23.53162426935988</v>
+        <v>19.30215318536057</v>
       </c>
       <c r="D14">
-        <v>3.502200095784321</v>
+        <v>8.637812675267064</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>25.09227409952374</v>
+        <v>22.84957784505702</v>
       </c>
       <c r="G14">
-        <v>2.010585314496129</v>
+        <v>2.051199327107417</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>10.06285957600806</v>
+      </c>
+      <c r="J14">
+        <v>6.323257525668612</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>20.45717970543103</v>
+      </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.56863628048227</v>
+        <v>14.59404689050716</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.11588365996715</v>
+        <v>26.47131590763477</v>
       </c>
       <c r="C15">
-        <v>23.40024667981821</v>
+        <v>19.19981361866827</v>
       </c>
       <c r="D15">
-        <v>3.501373068292983</v>
+        <v>8.607483652026977</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>24.92939968875042</v>
+        <v>22.784774788526</v>
       </c>
       <c r="G15">
-        <v>2.01179438772714</v>
+        <v>2.051883401184233</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>10.09488651449203</v>
+      </c>
+      <c r="J15">
+        <v>6.323734458762975</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>20.34537893231004</v>
+      </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.49008553155787</v>
+        <v>14.57049642554144</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.03276404202775</v>
+        <v>25.63753342408624</v>
       </c>
       <c r="C16">
-        <v>22.6367531772776</v>
+        <v>18.60353545554122</v>
       </c>
       <c r="D16">
-        <v>3.497965776940654</v>
+        <v>8.43290446410748</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>24.14026280793517</v>
+        <v>22.42144930573509</v>
       </c>
       <c r="G16">
-        <v>2.018729367425011</v>
+        <v>2.055824885370245</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>10.28519432197773</v>
+      </c>
+      <c r="J16">
+        <v>6.328164852353225</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>19.6940625612045</v>
+      </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.05505519971366</v>
+        <v>14.4435297248863</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.35455833699283</v>
+        <v>25.11351899630715</v>
       </c>
       <c r="C17">
-        <v>22.15875742923573</v>
+        <v>18.22894495403973</v>
       </c>
       <c r="D17">
-        <v>3.497003835345494</v>
+        <v>8.325148686787722</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>23.68477355217545</v>
+        <v>22.20571460575203</v>
       </c>
       <c r="G17">
-        <v>2.022992538074942</v>
+        <v>2.058262739931522</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>10.40765495185557</v>
+      </c>
+      <c r="J17">
+        <v>6.332356990261294</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>19.28495685551909</v>
+      </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.80149840126703</v>
+        <v>14.37263258740062</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.95933836690097</v>
+        <v>24.80749684455203</v>
       </c>
       <c r="C18">
-        <v>21.88023986515038</v>
+        <v>18.01024455589071</v>
       </c>
       <c r="D18">
-        <v>3.496842316756873</v>
+        <v>8.262943777847079</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>23.42656983989212</v>
+        <v>22.08425140613979</v>
       </c>
       <c r="G18">
-        <v>2.025449038554923</v>
+        <v>2.059672562375423</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>10.48006636702806</v>
+      </c>
+      <c r="J18">
+        <v>6.335294252875785</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>19.04612027916447</v>
+      </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.66048792910209</v>
+        <v>14.33436757447924</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.82463438718165</v>
+        <v>24.70308686534583</v>
       </c>
       <c r="C19">
-        <v>21.78531774113803</v>
+        <v>17.93563758831911</v>
       </c>
       <c r="D19">
-        <v>3.496852835194437</v>
+        <v>8.241844831784986</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>23.33979511234059</v>
+        <v>22.0435755263326</v>
       </c>
       <c r="G19">
-        <v>2.026281639308362</v>
+        <v>2.060151245159304</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>10.50491177245065</v>
+      </c>
+      <c r="J19">
+        <v>6.336377642026328</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>18.96464600408795</v>
+      </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.61356704545701</v>
+        <v>14.32183777685236</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.42728403622732</v>
+        <v>25.16977916559733</v>
       </c>
       <c r="C20">
-        <v>22.21001098827703</v>
+        <v>18.26915637338968</v>
       </c>
       <c r="D20">
-        <v>3.497065189454449</v>
+        <v>8.336643278622303</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>23.73286952271353</v>
+        <v>22.22840841411788</v>
       </c>
       <c r="G20">
-        <v>2.022538283407839</v>
+        <v>2.058002443386827</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>10.39441168970637</v>
+      </c>
+      <c r="J20">
+        <v>6.331855934821578</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>19.32887168170413</v>
+      </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.82798867611115</v>
+        <v>14.37991829802634</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.39134326445568</v>
+        <v>26.68273240837755</v>
       </c>
       <c r="C21">
-        <v>23.59443754413637</v>
+        <v>19.35105479079484</v>
       </c>
       <c r="D21">
-        <v>3.5026211224074</v>
+        <v>8.652342075166398</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>25.17046151290435</v>
+        <v>22.88079499445966</v>
       </c>
       <c r="G21">
-        <v>2.01000559522349</v>
+        <v>2.050871660150681</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>10.04762652791258</v>
+      </c>
+      <c r="J21">
+        <v>6.323059421382925</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>20.51060398163607</v>
+      </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.60911890782861</v>
+        <v>14.60548322636764</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.63105603676911</v>
+        <v>27.63087910933445</v>
       </c>
       <c r="C22">
-        <v>24.46846933353938</v>
+        <v>20.029554515593</v>
       </c>
       <c r="D22">
-        <v>3.510247932683205</v>
+        <v>8.856353793380901</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>26.27930933942446</v>
+        <v>23.33064961120034</v>
       </c>
       <c r="G22">
-        <v>2.001827439189725</v>
+        <v>2.046272130396503</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>9.84136067952465</v>
+      </c>
+      <c r="J22">
+        <v>6.322333806841746</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>21.25198695581506</v>
+      </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.44305797388355</v>
+        <v>14.77644845145199</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.97332348925516</v>
+        <v>27.12852947021901</v>
       </c>
       <c r="C23">
-        <v>24.00473666698867</v>
+        <v>19.67002511984442</v>
       </c>
       <c r="D23">
-        <v>3.505785438759625</v>
+        <v>8.747693720834214</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>25.6861635680568</v>
+        <v>23.08839974018669</v>
       </c>
       <c r="G23">
-        <v>2.006192512981393</v>
+        <v>2.048721778663299</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>9.949436374682573</v>
+      </c>
+      <c r="J23">
+        <v>6.322244617754201</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>20.85910423708484</v>
+      </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.99658653074904</v>
+        <v>14.68299334514952</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.39442130785826</v>
+        <v>25.14435877265566</v>
       </c>
       <c r="C24">
-        <v>22.18685082695472</v>
+        <v>18.25098720781937</v>
       </c>
       <c r="D24">
-        <v>3.497036237178502</v>
+        <v>8.331447363416485</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>23.71111392839785</v>
+        <v>22.21814055391479</v>
       </c>
       <c r="G24">
-        <v>2.022743634381233</v>
+        <v>2.058120097626656</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>10.40039274589883</v>
+      </c>
+      <c r="J24">
+        <v>6.332080823747638</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>19.30902912017583</v>
+      </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.81599760363284</v>
+        <v>14.37661667119377</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.41551516007543</v>
+        <v>22.82711798864316</v>
       </c>
       <c r="C25">
-        <v>20.08831330341882</v>
+        <v>16.59609875756346</v>
       </c>
       <c r="D25">
-        <v>3.502351968446228</v>
+        <v>7.874040670224123</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>21.8962250115694</v>
+        <v>21.37946525196137</v>
       </c>
       <c r="G25">
-        <v>2.040778233557213</v>
+        <v>2.06855310569601</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>10.96124537002965</v>
+      </c>
+      <c r="J25">
+        <v>6.362620958250728</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>17.54390080759061</v>
+      </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.87300910102622</v>
+        <v>14.14137423627735</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.96604140402746</v>
+        <v>13.5642721015424</v>
       </c>
       <c r="C2">
-        <v>15.26922679494709</v>
+        <v>8.773884001667684</v>
       </c>
       <c r="D2">
-        <v>7.531986922807982</v>
+        <v>10.75636708064979</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.84627861134367</v>
+        <v>30.36434137114557</v>
       </c>
       <c r="G2">
-        <v>2.076525043988782</v>
+        <v>3.633931526186452</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.42648150194248</v>
+        <v>20.03760700138333</v>
       </c>
       <c r="J2">
-        <v>6.400530035208065</v>
+        <v>11.07709599258071</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.28307009848552</v>
+        <v>17.55538640893379</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.04274910910086</v>
+        <v>22.02576866545462</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.60701841992746</v>
+        <v>12.93852324362643</v>
       </c>
       <c r="C3">
-        <v>14.3018549430062</v>
+        <v>8.249131485747323</v>
       </c>
       <c r="D3">
-        <v>7.298113678833533</v>
+        <v>10.73558238273878</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.5361059325485</v>
+        <v>30.45757176190199</v>
       </c>
       <c r="G3">
-        <v>2.082125181368061</v>
+        <v>3.636037852679719</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.76981411401576</v>
+        <v>20.18423156800726</v>
       </c>
       <c r="J3">
-        <v>6.435030293328565</v>
+        <v>11.11253272763376</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.3790662464597</v>
+        <v>17.34338969366835</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.01831338681486</v>
+        <v>22.12841502399705</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.72406596809751</v>
+        <v>12.53863524316537</v>
       </c>
       <c r="C4">
-        <v>13.67419617772513</v>
+        <v>7.9087958618406</v>
       </c>
       <c r="D4">
-        <v>7.153972990357907</v>
+        <v>10.72437346580099</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.37021469119369</v>
+        <v>30.52413094511854</v>
       </c>
       <c r="G4">
-        <v>2.085666135033378</v>
+        <v>3.637399453174576</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.99323558985642</v>
+        <v>20.2794502834624</v>
       </c>
       <c r="J4">
-        <v>6.460303764109004</v>
+        <v>11.13598152408213</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.80056848737366</v>
+        <v>17.21404259963569</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.02275227248826</v>
+        <v>22.19780755316026</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.3520283399037</v>
+        <v>12.37192891948538</v>
       </c>
       <c r="C5">
-        <v>13.40995156266461</v>
+        <v>7.765607481807205</v>
       </c>
       <c r="D5">
-        <v>7.095176504163173</v>
+        <v>10.72019935986136</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.30866217544275</v>
+        <v>30.55358679790189</v>
       </c>
       <c r="G5">
-        <v>2.087135560623602</v>
+        <v>3.637971547835957</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>12.08729831818336</v>
+        <v>20.31955811660882</v>
       </c>
       <c r="J5">
-        <v>6.471595047354215</v>
+        <v>11.14596219508651</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.55912640977959</v>
+        <v>17.16159095627162</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.02922309134061</v>
+        <v>22.22768026138867</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.28951263057373</v>
+        <v>12.34402727286292</v>
       </c>
       <c r="C6">
-        <v>13.36556281221483</v>
+        <v>7.741561549195625</v>
       </c>
       <c r="D6">
-        <v>7.085412274130507</v>
+        <v>10.71953011204599</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.29880264936356</v>
+        <v>30.55861848951791</v>
       </c>
       <c r="G6">
-        <v>2.087381175400935</v>
+        <v>3.638067586068606</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>12.10309544708857</v>
+        <v>20.32629684460854</v>
       </c>
       <c r="J6">
-        <v>6.47352884339022</v>
+        <v>11.14764515294494</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.51869742633409</v>
+        <v>17.15289852362582</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.03057238355608</v>
+        <v>22.23273672796764</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.71909807795687</v>
+        <v>12.53640188503537</v>
       </c>
       <c r="C7">
-        <v>13.67066675813436</v>
+        <v>7.906882896290357</v>
       </c>
       <c r="D7">
-        <v>7.153180168084402</v>
+        <v>10.72431557468555</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.36936026216455</v>
+        <v>30.52451876676746</v>
       </c>
       <c r="G7">
-        <v>2.08568584419355</v>
+        <v>3.637407098801518</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.99449212711503</v>
+        <v>20.27998590575954</v>
       </c>
       <c r="J7">
-        <v>6.460452072156879</v>
+        <v>11.1361144056958</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.79733510425888</v>
+        <v>17.21333410366548</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.02282096858588</v>
+        <v>22.19820397868369</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.50749631247999</v>
+        <v>13.35187432693163</v>
       </c>
       <c r="C8">
-        <v>14.94266652518572</v>
+        <v>8.596745601145997</v>
       </c>
       <c r="D8">
-        <v>7.451505082050571</v>
+        <v>10.74888014020064</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.73416684346386</v>
+        <v>30.39454800714731</v>
       </c>
       <c r="G8">
-        <v>2.078435139307078</v>
+        <v>3.63464364346159</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.5421439006663</v>
+        <v>20.08708594303341</v>
       </c>
       <c r="J8">
-        <v>6.411554478445465</v>
+        <v>11.08896372048423</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.97633661220819</v>
+        <v>17.48215120509374</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.03015394893182</v>
+        <v>22.05983578528188</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.63158014264944</v>
+        <v>14.8195494109944</v>
       </c>
       <c r="C9">
-        <v>17.17029762976492</v>
+        <v>9.803672901091991</v>
       </c>
       <c r="D9">
-        <v>8.02908367236766</v>
+        <v>10.80922646344669</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.64873184435042</v>
+        <v>30.21400574971397</v>
       </c>
       <c r="G9">
-        <v>2.064995958892718</v>
+        <v>3.629763996386234</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10.76350416282215</v>
+        <v>19.74998624544916</v>
       </c>
       <c r="J9">
-        <v>6.349826023100253</v>
+        <v>11.00991440187285</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.12888291301238</v>
+        <v>18.01350612834174</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.2085117662873</v>
+        <v>21.83929955188875</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.69670236735049</v>
+        <v>15.80992006425195</v>
       </c>
       <c r="C10">
-        <v>18.64584003435383</v>
+        <v>10.59957161222633</v>
       </c>
       <c r="D10">
-        <v>8.445168334687992</v>
+        <v>10.86077389916139</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.44642194617243</v>
+        <v>30.12720042557575</v>
       </c>
       <c r="G10">
-        <v>2.055547720116176</v>
+        <v>3.626504285422134</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.27149714189389</v>
+        <v>19.52741031123113</v>
       </c>
       <c r="J10">
-        <v>6.327758913604099</v>
+        <v>10.96001336041442</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.74026767171549</v>
+        <v>18.40339226489687</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.45196428780484</v>
+        <v>21.70862166814443</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.58707304975085</v>
+        <v>16.24014158462237</v>
       </c>
       <c r="C11">
-        <v>19.28262058538592</v>
+        <v>10.94169480526663</v>
       </c>
       <c r="D11">
-        <v>8.632015933179995</v>
+        <v>10.88573967586871</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.83715438529886</v>
+        <v>30.09776025235734</v>
       </c>
       <c r="G11">
-        <v>2.051330062878586</v>
+        <v>3.625091260104659</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.06895691922608</v>
+        <v>19.43160307799745</v>
       </c>
       <c r="J11">
-        <v>6.323342047616806</v>
+        <v>10.93908756037013</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.43584095259139</v>
+        <v>18.58001389680982</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.58951201986983</v>
+        <v>21.65605894445671</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.91725550065282</v>
+        <v>16.40005540702944</v>
       </c>
       <c r="C12">
-        <v>19.51884732107703</v>
+        <v>11.06836971328369</v>
       </c>
       <c r="D12">
-        <v>8.702376453353791</v>
+        <v>10.89540696260404</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.98914400348628</v>
+        <v>30.08806342483125</v>
       </c>
       <c r="G12">
-        <v>2.04974345870065</v>
+        <v>3.624566169430219</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>9.995716069887809</v>
+        <v>19.39610663122658</v>
       </c>
       <c r="J12">
-        <v>6.322527131445292</v>
+        <v>10.93141871125418</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.69392389604619</v>
+        <v>18.64673736048536</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.64562597966046</v>
+        <v>21.63715090203791</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.84645407318174</v>
+        <v>16.36574976497187</v>
       </c>
       <c r="C13">
-        <v>19.46818916748706</v>
+        <v>11.04121623892484</v>
       </c>
       <c r="D13">
-        <v>8.68724124379043</v>
+        <v>10.89331553222545</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.95623092248304</v>
+        <v>30.09008715722421</v>
       </c>
       <c r="G13">
-        <v>2.050084711136422</v>
+        <v>3.624678813536139</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.01132906808295</v>
+        <v>19.40371655656875</v>
       </c>
       <c r="J13">
-        <v>6.322663687068234</v>
+        <v>10.93305897852114</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.63857636180346</v>
+        <v>18.6323751834104</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.63335910631443</v>
+        <v>21.6411786738926</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.6143768369389</v>
+        <v>16.25335837036196</v>
       </c>
       <c r="C14">
-        <v>19.30215318536057</v>
+        <v>10.95217419783783</v>
       </c>
       <c r="D14">
-        <v>8.637812675267064</v>
+        <v>10.88653076304704</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.84957784505702</v>
+        <v>30.09693336302067</v>
       </c>
       <c r="G14">
-        <v>2.051199327107417</v>
+        <v>3.625047860626211</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.06285957600806</v>
+        <v>19.4286670524449</v>
       </c>
       <c r="J14">
-        <v>6.323257525668612</v>
+        <v>10.93845152221432</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.45717970543103</v>
+        <v>18.58550676787724</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.59404689050716</v>
+        <v>21.6544833640265</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.47131590763477</v>
+        <v>16.18412228709618</v>
       </c>
       <c r="C15">
-        <v>19.19981361866827</v>
+        <v>10.89725804689561</v>
       </c>
       <c r="D15">
-        <v>8.607483652026977</v>
+        <v>10.88240252616598</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.784774788526</v>
+        <v>30.10131607467914</v>
       </c>
       <c r="G15">
-        <v>2.051883401184233</v>
+        <v>3.625275212296587</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.09488651449203</v>
+        <v>19.44405203747239</v>
       </c>
       <c r="J15">
-        <v>6.323734458762975</v>
+        <v>10.9417878622423</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.34537893231004</v>
+        <v>18.5567762131725</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.57049642554144</v>
+        <v>21.66276281140691</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.63753342408624</v>
+        <v>15.7813881699721</v>
       </c>
       <c r="C16">
-        <v>18.60353545554122</v>
+        <v>10.57681068012397</v>
       </c>
       <c r="D16">
-        <v>8.43290446410748</v>
+        <v>10.85917244020725</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.42144930573509</v>
+        <v>30.12932718986011</v>
       </c>
       <c r="G16">
-        <v>2.055824885370245</v>
+        <v>3.626598030842554</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.28519432197773</v>
+        <v>19.53378115187562</v>
       </c>
       <c r="J16">
-        <v>6.328164852353225</v>
+        <v>10.96141662834899</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.6940625612045</v>
+        <v>18.39183018673513</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.4435297248863</v>
+        <v>21.71219583582601</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.11351899630715</v>
+        <v>15.52906057724642</v>
       </c>
       <c r="C17">
-        <v>18.22894495403973</v>
+        <v>10.3751098211428</v>
       </c>
       <c r="D17">
-        <v>8.325148686787722</v>
+        <v>10.84530663501122</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.20571460575203</v>
+        <v>30.14908964777544</v>
       </c>
       <c r="G17">
-        <v>2.058262739931522</v>
+        <v>3.627427387074775</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.40765495185557</v>
+        <v>19.59022189461407</v>
       </c>
       <c r="J17">
-        <v>6.332356990261294</v>
+        <v>10.97391281138553</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.28495685551909</v>
+        <v>18.29041363619292</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.37263258740062</v>
+        <v>21.74428906021198</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.80749684455203</v>
+        <v>15.38202130953637</v>
       </c>
       <c r="C18">
-        <v>18.01024455589071</v>
+        <v>10.25722086034779</v>
       </c>
       <c r="D18">
-        <v>8.262943777847079</v>
+        <v>10.83747444169824</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.08425140613979</v>
+        <v>30.16140191641303</v>
       </c>
       <c r="G18">
-        <v>2.059672562375423</v>
+        <v>3.627910986910455</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.48006636702806</v>
+        <v>19.62319744024137</v>
       </c>
       <c r="J18">
-        <v>6.335294252875785</v>
+        <v>10.98126729515844</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.04612027916447</v>
+        <v>18.23201500470381</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.33436757447924</v>
+        <v>21.76339574397645</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.70308686534583</v>
+        <v>15.33191153590602</v>
       </c>
       <c r="C19">
-        <v>17.93563758831911</v>
+        <v>10.21698396634987</v>
       </c>
       <c r="D19">
-        <v>8.241844831784986</v>
+        <v>10.8348473069316</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.0435755263326</v>
+        <v>30.16573279965493</v>
       </c>
       <c r="G19">
-        <v>2.060151245159304</v>
+        <v>3.628075856501072</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10.50491177245065</v>
+        <v>19.63445036093205</v>
       </c>
       <c r="J19">
-        <v>6.336377642026328</v>
+        <v>10.98378607700876</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.96464600408795</v>
+        <v>18.21223244285963</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.32183777685236</v>
+        <v>21.76997594811281</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.16977916559733</v>
+        <v>15.55611929998258</v>
       </c>
       <c r="C20">
-        <v>18.26915637338968</v>
+        <v>10.39677548710338</v>
       </c>
       <c r="D20">
-        <v>8.336643278622303</v>
+        <v>10.84676790236894</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.22840841411788</v>
+        <v>30.14688800138182</v>
       </c>
       <c r="G20">
-        <v>2.058002443386827</v>
+        <v>3.627338420457427</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.39441168970637</v>
+        <v>19.58416065171318</v>
       </c>
       <c r="J20">
-        <v>6.331855934821578</v>
+        <v>10.97256528550168</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.32887168170413</v>
+        <v>18.30121687295227</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.37991829802634</v>
+        <v>21.74080561910083</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.68273240837755</v>
+        <v>16.28645249789735</v>
       </c>
       <c r="C21">
-        <v>19.35105479079484</v>
+        <v>10.97840623879457</v>
       </c>
       <c r="D21">
-        <v>8.652342075166398</v>
+        <v>10.88851786501077</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.88079499445966</v>
+        <v>30.09488302407459</v>
       </c>
       <c r="G21">
-        <v>2.050871660150681</v>
+        <v>3.62493919178927</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.04762652791258</v>
+        <v>19.42131721062502</v>
       </c>
       <c r="J21">
-        <v>6.323059421382925</v>
+        <v>10.93686067162554</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.51060398163607</v>
+        <v>18.5992778968906</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.60548322636764</v>
+        <v>21.65054836317145</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.63087910933445</v>
+        <v>16.74624258559598</v>
       </c>
       <c r="C22">
-        <v>20.029554515593</v>
+        <v>11.34174749261378</v>
       </c>
       <c r="D22">
-        <v>8.856353793380901</v>
+        <v>10.91704470076279</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.33064961120034</v>
+        <v>30.06935779670732</v>
       </c>
       <c r="G22">
-        <v>2.046272130396503</v>
+        <v>3.623429371143551</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>9.84136067952465</v>
+        <v>19.31945796422199</v>
       </c>
       <c r="J22">
-        <v>6.322333806841746</v>
+        <v>10.91501377486398</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.25198695581506</v>
+        <v>18.79312581527289</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.77644845145199</v>
+        <v>21.59737023799696</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.12852947021901</v>
+        <v>16.50247105306647</v>
       </c>
       <c r="C23">
-        <v>19.67002511984442</v>
+        <v>11.14936465099731</v>
       </c>
       <c r="D23">
-        <v>8.747693720834214</v>
+        <v>10.90170750124645</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.08839974018669</v>
+        <v>30.08220477036508</v>
       </c>
       <c r="G23">
-        <v>2.048721778663299</v>
+        <v>3.624229880885846</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>9.949436374682573</v>
+        <v>19.37340382890259</v>
       </c>
       <c r="J23">
-        <v>6.322244617754201</v>
+        <v>10.9265376650545</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.85910423708484</v>
+        <v>18.68976980205379</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.68299334514952</v>
+        <v>21.62521866539945</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.14435877265566</v>
+        <v>15.54389218981617</v>
       </c>
       <c r="C24">
-        <v>18.25098720781937</v>
+        <v>10.38698644522684</v>
       </c>
       <c r="D24">
-        <v>8.331447363416485</v>
+        <v>10.84610682869315</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.21814055391479</v>
+        <v>30.14788040523541</v>
       </c>
       <c r="G24">
-        <v>2.058120097626656</v>
+        <v>3.627378621104789</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.40039274589883</v>
+        <v>19.5868992980392</v>
       </c>
       <c r="J24">
-        <v>6.332080823747638</v>
+        <v>10.97317397160445</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.30902912017583</v>
+        <v>18.29633301494006</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.37661667119377</v>
+        <v>21.74237844031412</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.82711798864316</v>
+        <v>14.43746726912631</v>
       </c>
       <c r="C25">
-        <v>16.59609875756346</v>
+        <v>9.493016839034226</v>
       </c>
       <c r="D25">
-        <v>7.874040670224123</v>
+        <v>10.79161851088895</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.37946525196137</v>
+        <v>30.25483236162476</v>
       </c>
       <c r="G25">
-        <v>2.06855310569601</v>
+        <v>3.631026679963398</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>10.96124537002965</v>
+        <v>19.83677402807435</v>
       </c>
       <c r="J25">
-        <v>6.362620958250728</v>
+        <v>11.02986344218237</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.54390080759061</v>
+        <v>17.86962845686895</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.14137423627735</v>
+        <v>21.8934819716218</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.5642721015424</v>
+        <v>20.96604140402746</v>
       </c>
       <c r="C2">
-        <v>8.773884001667684</v>
+        <v>15.26922679494717</v>
       </c>
       <c r="D2">
-        <v>10.75636708064979</v>
+        <v>7.531986922807935</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.36434137114557</v>
+        <v>20.84627861134357</v>
       </c>
       <c r="G2">
-        <v>3.633931526186452</v>
+        <v>2.076525043988781</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.03760700138333</v>
+        <v>11.42648150194245</v>
       </c>
       <c r="J2">
-        <v>11.07709599258071</v>
+        <v>6.400530035208099</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.55538640893379</v>
+        <v>16.2830700984855</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.02576866545462</v>
+        <v>14.04274910910079</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.93852324362643</v>
+        <v>19.6070184199274</v>
       </c>
       <c r="C3">
-        <v>8.249131485747323</v>
+        <v>14.30185494300605</v>
       </c>
       <c r="D3">
-        <v>10.73558238273878</v>
+        <v>7.298113678833432</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30.45757176190199</v>
+        <v>20.5361059325486</v>
       </c>
       <c r="G3">
-        <v>3.636037852679719</v>
+        <v>2.08212518136833</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.18423156800726</v>
+        <v>11.7698141140159</v>
       </c>
       <c r="J3">
-        <v>11.11253272763376</v>
+        <v>6.435030293328624</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.34338969366835</v>
+        <v>15.3790662464597</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.12841502399705</v>
+        <v>14.01831338681499</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.53863524316537</v>
+        <v>18.72406596809749</v>
       </c>
       <c r="C4">
-        <v>7.9087958618406</v>
+        <v>13.67419617772508</v>
       </c>
       <c r="D4">
-        <v>10.72437346580099</v>
+        <v>7.153972990357815</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30.52413094511854</v>
+        <v>20.37021469119372</v>
       </c>
       <c r="G4">
-        <v>3.637399453174576</v>
+        <v>2.08566613503378</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.2794502834624</v>
+        <v>11.99323558985645</v>
       </c>
       <c r="J4">
-        <v>11.13598152408213</v>
+        <v>6.46030376410895</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.21404259963569</v>
+        <v>14.80056848737363</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.19780755316026</v>
+        <v>14.02275227248834</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.37192891948538</v>
+        <v>18.35202833990368</v>
       </c>
       <c r="C5">
-        <v>7.765607481807205</v>
+        <v>13.40995156266464</v>
       </c>
       <c r="D5">
-        <v>10.72019935986136</v>
+        <v>7.095176504163065</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.55358679790189</v>
+        <v>20.30866217544268</v>
       </c>
       <c r="G5">
-        <v>3.637971547835957</v>
+        <v>2.087135560623738</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.31955811660882</v>
+        <v>12.08729831818341</v>
       </c>
       <c r="J5">
-        <v>11.14596219508651</v>
+        <v>6.471595047354153</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.16159095627162</v>
+        <v>14.55912640977952</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.22768026138867</v>
+        <v>14.0292230913406</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.34402727286292</v>
+        <v>18.28951263057373</v>
       </c>
       <c r="C6">
-        <v>7.741561549195625</v>
+        <v>13.36556281221489</v>
       </c>
       <c r="D6">
-        <v>10.71953011204599</v>
+        <v>7.085412274130533</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30.55861848951791</v>
+        <v>20.29880264936343</v>
       </c>
       <c r="G6">
-        <v>3.638067586068606</v>
+        <v>2.08738117540107</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.32629684460854</v>
+        <v>12.10309544708854</v>
       </c>
       <c r="J6">
-        <v>11.14764515294494</v>
+        <v>6.473528843390193</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.15289852362582</v>
+        <v>14.51869742633408</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.23273672796764</v>
+        <v>14.03057238355601</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.53640188503537</v>
+        <v>18.71909807795685</v>
       </c>
       <c r="C7">
-        <v>7.906882896290357</v>
+        <v>13.67066675813437</v>
       </c>
       <c r="D7">
-        <v>10.72431557468555</v>
+        <v>7.153180168084307</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30.52451876676746</v>
+        <v>20.36936026216456</v>
       </c>
       <c r="G7">
-        <v>3.637407098801518</v>
+        <v>2.085685844193549</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.27998590575954</v>
+        <v>11.99449212711513</v>
       </c>
       <c r="J7">
-        <v>11.1361144056958</v>
+        <v>6.460452072156819</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.21333410366548</v>
+        <v>14.79733510425885</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.19820397868369</v>
+        <v>14.02282096858594</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.35187432693163</v>
+        <v>20.50749631248003</v>
       </c>
       <c r="C8">
-        <v>8.596745601145997</v>
+        <v>14.94266652518578</v>
       </c>
       <c r="D8">
-        <v>10.74888014020064</v>
+        <v>7.451505082050638</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.39454800714731</v>
+        <v>20.73416684346367</v>
       </c>
       <c r="G8">
-        <v>3.63464364346159</v>
+        <v>2.078435139307212</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.08708594303341</v>
+        <v>11.54214390066617</v>
       </c>
       <c r="J8">
-        <v>11.08896372048423</v>
+        <v>6.411554478445436</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.48215120509374</v>
+        <v>15.97633661220818</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.05983578528188</v>
+        <v>14.03015394893164</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.8195494109944</v>
+        <v>23.63158014264943</v>
       </c>
       <c r="C9">
-        <v>9.803672901091991</v>
+        <v>17.17029762976488</v>
       </c>
       <c r="D9">
-        <v>10.80922646344669</v>
+        <v>8.029083672367616</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.21400574971397</v>
+        <v>21.64873184435046</v>
       </c>
       <c r="G9">
-        <v>3.629763996386234</v>
+        <v>2.064995958892719</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.74998624544916</v>
+        <v>10.76350416282216</v>
       </c>
       <c r="J9">
-        <v>11.00991440187285</v>
+        <v>6.349826023100305</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.01350612834174</v>
+        <v>18.12888291301238</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.83929955188875</v>
+        <v>14.20851176628735</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.80992006425195</v>
+        <v>25.69670236735054</v>
       </c>
       <c r="C10">
-        <v>10.59957161222633</v>
+        <v>18.64584003435384</v>
       </c>
       <c r="D10">
-        <v>10.86077389916139</v>
+        <v>8.445168334687907</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.12720042557575</v>
+        <v>22.44642194617241</v>
       </c>
       <c r="G10">
-        <v>3.626504285422134</v>
+        <v>2.055547720116309</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.52741031123113</v>
+        <v>10.27149714189388</v>
       </c>
       <c r="J10">
-        <v>10.96001336041442</v>
+        <v>6.327758913604097</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.40339226489687</v>
+        <v>19.7402676717155</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.70862166814443</v>
+        <v>14.45196428780485</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.24014158462237</v>
+        <v>26.58707304975081</v>
       </c>
       <c r="C11">
-        <v>10.94169480526663</v>
+        <v>19.28262058538597</v>
       </c>
       <c r="D11">
-        <v>10.88573967586871</v>
+        <v>8.632015933180018</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.09776025235734</v>
+        <v>22.8371543852989</v>
       </c>
       <c r="G11">
-        <v>3.625091260104659</v>
+        <v>2.051330062878451</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.43160307799745</v>
+        <v>10.06895691922617</v>
       </c>
       <c r="J11">
-        <v>10.93908756037013</v>
+        <v>6.323342047616776</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.58001389680982</v>
+        <v>20.43584095259136</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.65605894445671</v>
+        <v>14.58951201986986</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.40005540702944</v>
+        <v>26.91725550065285</v>
       </c>
       <c r="C12">
-        <v>11.06836971328369</v>
+        <v>19.51884732107703</v>
       </c>
       <c r="D12">
-        <v>10.89540696260404</v>
+        <v>8.702376453353789</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.08806342483125</v>
+        <v>22.98914400348631</v>
       </c>
       <c r="G12">
-        <v>3.624566169430219</v>
+        <v>2.049743458700918</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.39610663122658</v>
+        <v>9.99571606988787</v>
       </c>
       <c r="J12">
-        <v>10.93141871125418</v>
+        <v>6.322527131445272</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.64673736048536</v>
+        <v>20.69392389604618</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.63715090203791</v>
+        <v>14.64562597966047</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.36574976497187</v>
+        <v>26.84645407318173</v>
       </c>
       <c r="C13">
-        <v>11.04121623892484</v>
+        <v>19.46818916748709</v>
       </c>
       <c r="D13">
-        <v>10.89331553222545</v>
+        <v>8.687241243790437</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.09008715722421</v>
+        <v>22.95623092248305</v>
       </c>
       <c r="G13">
-        <v>3.624678813536139</v>
+        <v>2.050084711136422</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.40371655656875</v>
+        <v>10.01132906808296</v>
       </c>
       <c r="J13">
-        <v>10.93305897852114</v>
+        <v>6.322663687068242</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.6323751834104</v>
+        <v>20.63857636180346</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.6411786738926</v>
+        <v>14.63335910631443</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.25335837036196</v>
+        <v>26.61437683693883</v>
       </c>
       <c r="C14">
-        <v>10.95217419783783</v>
+        <v>19.30215318536061</v>
       </c>
       <c r="D14">
-        <v>10.88653076304704</v>
+        <v>8.63781267526705</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30.09693336302067</v>
+        <v>22.84957784505714</v>
       </c>
       <c r="G14">
-        <v>3.625047860626211</v>
+        <v>2.051199327107549</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.4286670524449</v>
+        <v>10.06285957600825</v>
       </c>
       <c r="J14">
-        <v>10.93845152221432</v>
+        <v>6.323257525668614</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.58550676787724</v>
+        <v>20.45717970543103</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.6544833640265</v>
+        <v>14.59404689050729</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.18412228709618</v>
+        <v>26.47131590763474</v>
       </c>
       <c r="C15">
-        <v>10.89725804689561</v>
+        <v>19.19981361866823</v>
       </c>
       <c r="D15">
-        <v>10.88240252616598</v>
+        <v>8.607483652026977</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30.10131607467914</v>
+        <v>22.78477478852603</v>
       </c>
       <c r="G15">
-        <v>3.625275212296587</v>
+        <v>2.051883401183966</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.44405203747239</v>
+        <v>10.09488651449205</v>
       </c>
       <c r="J15">
-        <v>10.9417878622423</v>
+        <v>6.323734458763021</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.5567762131725</v>
+        <v>20.34537893231001</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.66276281140691</v>
+        <v>14.57049642554146</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.7813881699721</v>
+        <v>25.63753342408623</v>
       </c>
       <c r="C16">
-        <v>10.57681068012397</v>
+        <v>18.60353545554111</v>
       </c>
       <c r="D16">
-        <v>10.85917244020725</v>
+        <v>8.43290446410742</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.12932718986011</v>
+        <v>22.42144930573514</v>
       </c>
       <c r="G16">
-        <v>3.626598030842554</v>
+        <v>2.055824885370247</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.53378115187562</v>
+        <v>10.28519432197779</v>
       </c>
       <c r="J16">
-        <v>10.96141662834899</v>
+        <v>6.328164852353275</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.39183018673513</v>
+        <v>19.69406256120447</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.71219583582601</v>
+        <v>14.44352972488636</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.52906057724642</v>
+        <v>25.11351899630713</v>
       </c>
       <c r="C17">
-        <v>10.3751098211428</v>
+        <v>18.22894495403969</v>
       </c>
       <c r="D17">
-        <v>10.84530663501122</v>
+        <v>8.325148686787692</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.14908964777544</v>
+        <v>22.20571460575214</v>
       </c>
       <c r="G17">
-        <v>3.627427387074775</v>
+        <v>2.058262739931656</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19.59022189461407</v>
+        <v>10.40765495185571</v>
       </c>
       <c r="J17">
-        <v>10.97391281138553</v>
+        <v>6.332356990261316</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.29041363619292</v>
+        <v>19.28495685551903</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.74428906021198</v>
+        <v>14.37263258740071</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.38202130953637</v>
+        <v>24.80749684455204</v>
       </c>
       <c r="C18">
-        <v>10.25722086034779</v>
+        <v>18.01024455589072</v>
       </c>
       <c r="D18">
-        <v>10.83747444169824</v>
+        <v>8.262943777847022</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.16140191641303</v>
+        <v>22.08425140613972</v>
       </c>
       <c r="G18">
-        <v>3.627910986910455</v>
+        <v>2.059672562375422</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19.62319744024137</v>
+        <v>10.48006636702803</v>
       </c>
       <c r="J18">
-        <v>10.98126729515844</v>
+        <v>6.335294252875888</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.23201500470381</v>
+        <v>19.04612027916446</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.76339574397645</v>
+        <v>14.33436757447922</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.33191153590602</v>
+        <v>24.70308686534582</v>
       </c>
       <c r="C19">
-        <v>10.21698396634987</v>
+        <v>17.93563758831905</v>
       </c>
       <c r="D19">
-        <v>10.8348473069316</v>
+        <v>8.241844831784899</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.16573279965493</v>
+        <v>22.04357552633265</v>
       </c>
       <c r="G19">
-        <v>3.628075856501072</v>
+        <v>2.06015124515957</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19.63445036093205</v>
+        <v>10.50491177245077</v>
       </c>
       <c r="J19">
-        <v>10.98378607700876</v>
+        <v>6.336377642026372</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.21223244285963</v>
+        <v>18.96464600408794</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.76997594811281</v>
+        <v>14.32183777685249</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.55611929998258</v>
+        <v>25.16977916559738</v>
       </c>
       <c r="C20">
-        <v>10.39677548710338</v>
+        <v>18.2691563733896</v>
       </c>
       <c r="D20">
-        <v>10.84676790236894</v>
+        <v>8.336643278622377</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.14688800138182</v>
+        <v>22.22840841411804</v>
       </c>
       <c r="G20">
-        <v>3.627338420457427</v>
+        <v>2.058002443386693</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>19.58416065171318</v>
+        <v>10.39441168970648</v>
       </c>
       <c r="J20">
-        <v>10.97256528550168</v>
+        <v>6.331855934821625</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.30121687295227</v>
+        <v>19.32887168170411</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.74080561910083</v>
+        <v>14.37991829802643</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.28645249789735</v>
+        <v>26.68273240837757</v>
       </c>
       <c r="C21">
-        <v>10.97840623879457</v>
+        <v>19.35105479079481</v>
       </c>
       <c r="D21">
-        <v>10.88851786501077</v>
+        <v>8.652342075166404</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.09488302407459</v>
+        <v>22.88079499445964</v>
       </c>
       <c r="G21">
-        <v>3.62493919178927</v>
+        <v>2.050871660150544</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.42131721062502</v>
+        <v>10.04762652791258</v>
       </c>
       <c r="J21">
-        <v>10.93686067162554</v>
+        <v>6.323059421382964</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.5992778968906</v>
+        <v>20.51060398163604</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.65054836317145</v>
+        <v>14.60548322636765</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.74624258559598</v>
+        <v>27.63087910933449</v>
       </c>
       <c r="C22">
-        <v>11.34174749261378</v>
+        <v>20.029554515593</v>
       </c>
       <c r="D22">
-        <v>10.91704470076279</v>
+        <v>8.856353793380878</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.06935779670732</v>
+        <v>23.3306496112003</v>
       </c>
       <c r="G22">
-        <v>3.623429371143551</v>
+        <v>2.046272130396637</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.31945796422199</v>
+        <v>9.841360679524621</v>
       </c>
       <c r="J22">
-        <v>10.91501377486398</v>
+        <v>6.322333806841731</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.79312581527289</v>
+        <v>21.2519869558151</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.59737023799696</v>
+        <v>14.77644845145195</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.50247105306647</v>
+        <v>27.12852947021901</v>
       </c>
       <c r="C23">
-        <v>11.14936465099731</v>
+        <v>19.67002511984446</v>
       </c>
       <c r="D23">
-        <v>10.90170750124645</v>
+        <v>8.747693720834206</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.08220477036508</v>
+        <v>23.08839974018669</v>
       </c>
       <c r="G23">
-        <v>3.624229880885846</v>
+        <v>2.048721778663164</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.37340382890259</v>
+        <v>9.949436374682543</v>
       </c>
       <c r="J23">
-        <v>10.9265376650545</v>
+        <v>6.322244617754198</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.68976980205379</v>
+        <v>20.85910423708484</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.62521866539945</v>
+        <v>14.68299334514951</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.54389218981617</v>
+        <v>25.14435877265566</v>
       </c>
       <c r="C24">
-        <v>10.38698644522684</v>
+        <v>18.25098720781933</v>
       </c>
       <c r="D24">
-        <v>10.84610682869315</v>
+        <v>8.331447363416467</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.14788040523541</v>
+        <v>22.21814055391482</v>
       </c>
       <c r="G24">
-        <v>3.627378621104789</v>
+        <v>2.058120097626656</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>19.5868992980392</v>
+        <v>10.40039274589885</v>
       </c>
       <c r="J24">
-        <v>10.97317397160445</v>
+        <v>6.332080823747638</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.29633301494006</v>
+        <v>19.30902912017583</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.74237844031412</v>
+        <v>14.37661667119378</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.43746726912631</v>
+        <v>22.82711798864317</v>
       </c>
       <c r="C25">
-        <v>9.493016839034226</v>
+        <v>16.59609875756334</v>
       </c>
       <c r="D25">
-        <v>10.79161851088895</v>
+        <v>7.874040670224182</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.25483236162476</v>
+        <v>21.37946525196134</v>
       </c>
       <c r="G25">
-        <v>3.631026679963398</v>
+        <v>2.068553105696142</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.83677402807435</v>
+        <v>10.9612453700295</v>
       </c>
       <c r="J25">
-        <v>11.02986344218237</v>
+        <v>6.362620958250702</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.86962845686895</v>
+        <v>17.54390080759064</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.8934819716218</v>
+        <v>14.14137423627733</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,923 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.96604140402746</v>
+        <v>24.69122758734806</v>
       </c>
       <c r="C2">
-        <v>15.26922679494717</v>
+        <v>18.87021428123876</v>
       </c>
       <c r="D2">
-        <v>7.531986922807935</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>5.499872805088585</v>
       </c>
       <c r="F2">
-        <v>20.84627861134357</v>
+        <v>10.90632865994127</v>
       </c>
       <c r="G2">
-        <v>2.076525043988781</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>10.1100063985381</v>
       </c>
       <c r="I2">
-        <v>11.42648150194245</v>
+        <v>3.518165666446408</v>
       </c>
       <c r="J2">
-        <v>6.400530035208099</v>
+        <v>6.115784190800543</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+        <v>9.084548269880715</v>
       </c>
       <c r="M2">
-        <v>16.2830700984855</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>14.04274910910079</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>8.457872999541939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.6070184199274</v>
+        <v>23.1152335824359</v>
       </c>
       <c r="C3">
-        <v>14.30185494300605</v>
+        <v>17.82309758622059</v>
       </c>
       <c r="D3">
-        <v>7.298113678833432</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>5.198909794980528</v>
       </c>
       <c r="F3">
-        <v>20.5361059325486</v>
+        <v>10.83478278366908</v>
       </c>
       <c r="G3">
-        <v>2.08212518136833</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>10.15527201114178</v>
       </c>
       <c r="I3">
-        <v>11.7698141140159</v>
+        <v>3.377632748291989</v>
       </c>
       <c r="J3">
-        <v>6.435030293328624</v>
+        <v>6.250557138222201</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+        <v>9.415810154425289</v>
       </c>
       <c r="M3">
-        <v>15.3790662464597</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>14.01831338681499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>8.663251723350298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.72406596809749</v>
+        <v>22.08966087804811</v>
       </c>
       <c r="C4">
-        <v>13.67419617772508</v>
+        <v>17.15207346211393</v>
       </c>
       <c r="D4">
-        <v>7.153972990357815</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>5.005237448294435</v>
       </c>
       <c r="F4">
-        <v>20.37021469119372</v>
+        <v>10.80714914454837</v>
       </c>
       <c r="G4">
-        <v>2.08566613503378</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>10.21472444544177</v>
       </c>
       <c r="I4">
-        <v>11.99323558985645</v>
+        <v>3.289136372582561</v>
       </c>
       <c r="J4">
-        <v>6.46030376410895</v>
+        <v>6.337218037026071</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+        <v>9.625848832293753</v>
       </c>
       <c r="M4">
-        <v>14.80056848737363</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>14.02275227248834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>8.799772074489361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.35202833990368</v>
+        <v>21.65702612615905</v>
       </c>
       <c r="C5">
-        <v>13.40995156266464</v>
+        <v>16.88478707003821</v>
       </c>
       <c r="D5">
-        <v>7.095176504163065</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>4.926084023273658</v>
       </c>
       <c r="F5">
-        <v>20.30866217544268</v>
+        <v>10.79256160454871</v>
       </c>
       <c r="G5">
-        <v>2.087135560623738</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>10.23342025805051</v>
       </c>
       <c r="I5">
-        <v>12.08729831818341</v>
+        <v>3.252854837113028</v>
       </c>
       <c r="J5">
-        <v>6.471595047354153</v>
+        <v>6.371916301721598</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+        <v>9.713444341317388</v>
       </c>
       <c r="M5">
-        <v>14.55912640977952</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>14.0292230913406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>8.853510120681714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.28951263057373</v>
+        <v>21.58411907957123</v>
       </c>
       <c r="C6">
-        <v>13.36556281221489</v>
+        <v>16.85598848142383</v>
       </c>
       <c r="D6">
-        <v>7.085412274130533</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>4.915214147194553</v>
       </c>
       <c r="F6">
-        <v>20.29880264936343</v>
+        <v>10.78148009354945</v>
       </c>
       <c r="G6">
-        <v>2.08738117540107</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>10.22116040616329</v>
       </c>
       <c r="I6">
-        <v>12.10309544708854</v>
+        <v>3.247392004095375</v>
       </c>
       <c r="J6">
-        <v>6.473528843390193</v>
+        <v>6.375813360008975</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+        <v>9.728531204845906</v>
       </c>
       <c r="M6">
-        <v>14.51869742633408</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>14.03057238355601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>8.857258562185338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.71909807795685</v>
+        <v>22.08338571581673</v>
       </c>
       <c r="C7">
-        <v>13.67066675813437</v>
+        <v>17.19136179196767</v>
       </c>
       <c r="D7">
-        <v>7.153180168084307</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>5.010626570616592</v>
       </c>
       <c r="F7">
-        <v>20.36936026216456</v>
+        <v>10.7826997175775</v>
       </c>
       <c r="G7">
-        <v>2.085685844193549</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>10.17168860254186</v>
       </c>
       <c r="I7">
-        <v>11.99449212711513</v>
+        <v>3.290014958978816</v>
       </c>
       <c r="J7">
-        <v>6.460452072156819</v>
+        <v>6.332422190083954</v>
       </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+        <v>9.628361286756263</v>
       </c>
       <c r="M7">
-        <v>14.79733510425885</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>14.02282096858594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>8.785883919125848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.50749631248003</v>
+        <v>24.15926712109112</v>
       </c>
       <c r="C8">
-        <v>14.94266652518578</v>
+        <v>18.56826750261889</v>
       </c>
       <c r="D8">
-        <v>7.451505082050638</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>5.405976102136894</v>
       </c>
       <c r="F8">
-        <v>20.73416684346367</v>
+        <v>10.84648701725666</v>
       </c>
       <c r="G8">
-        <v>2.078435139307212</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>10.06131786115268</v>
       </c>
       <c r="I8">
-        <v>11.54214390066617</v>
+        <v>3.471679702953527</v>
       </c>
       <c r="J8">
-        <v>6.411554478445436</v>
+        <v>6.154406115618198</v>
       </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
+        <v>9.199879454904821</v>
       </c>
       <c r="M8">
-        <v>15.97633661220818</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>14.03015394893164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>8.506762332029453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.63158014264943</v>
+        <v>27.77167132116209</v>
       </c>
       <c r="C9">
-        <v>17.17029762976488</v>
+        <v>20.97048364288195</v>
       </c>
       <c r="D9">
-        <v>8.029083672367616</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>6.09903589322345</v>
       </c>
       <c r="F9">
-        <v>21.64873184435046</v>
+        <v>11.14954862440121</v>
       </c>
       <c r="G9">
-        <v>2.064995958892719</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>10.19738689862066</v>
       </c>
       <c r="I9">
-        <v>10.76350416282216</v>
+        <v>3.809263442827805</v>
       </c>
       <c r="J9">
-        <v>6.349826023100305</v>
+        <v>5.847267538030924</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+        <v>8.40908374426251</v>
       </c>
       <c r="M9">
-        <v>18.12888291301238</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>14.20851176628735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>8.076957077276374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.69670236735054</v>
+        <v>30.14705455348847</v>
       </c>
       <c r="C10">
-        <v>18.64584003435384</v>
+        <v>22.6091411499475</v>
       </c>
       <c r="D10">
-        <v>8.445168334687907</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>6.566037826583941</v>
       </c>
       <c r="F10">
-        <v>22.44642194617241</v>
+        <v>11.44948053750797</v>
       </c>
       <c r="G10">
-        <v>2.055547720116309</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>10.46957062593708</v>
       </c>
       <c r="I10">
-        <v>10.27149714189388</v>
+        <v>4.048709996305804</v>
       </c>
       <c r="J10">
-        <v>6.327758913604097</v>
+        <v>5.640988349318244</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
+        <v>7.863164129003426</v>
       </c>
       <c r="M10">
-        <v>19.7402676717155</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>14.45196428780485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>7.821488266412717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.58707304975081</v>
+        <v>31.16723482728387</v>
       </c>
       <c r="C11">
-        <v>19.28262058538597</v>
+        <v>23.37565188590745</v>
       </c>
       <c r="D11">
-        <v>8.632015933180018</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>6.776612070510164</v>
       </c>
       <c r="F11">
-        <v>22.8371543852989</v>
+        <v>11.57031562036538</v>
       </c>
       <c r="G11">
-        <v>2.051330062878451</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>10.5739364961896</v>
       </c>
       <c r="I11">
-        <v>10.06895691922617</v>
+        <v>4.158856962752259</v>
       </c>
       <c r="J11">
-        <v>6.323342047616776</v>
+        <v>5.5434456132189</v>
       </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
+        <v>7.629479441870115</v>
       </c>
       <c r="M11">
-        <v>20.43584095259136</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>14.58951201986986</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>7.697430207924411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.91725550065285</v>
+        <v>31.5452508320383</v>
       </c>
       <c r="C12">
-        <v>19.51884732107703</v>
+        <v>23.63203356462448</v>
       </c>
       <c r="D12">
-        <v>8.702376453353789</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>6.850502676787583</v>
       </c>
       <c r="F12">
-        <v>22.98914400348631</v>
+        <v>11.63838665135244</v>
       </c>
       <c r="G12">
-        <v>2.049743458700918</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>10.65547391163816</v>
       </c>
       <c r="I12">
-        <v>9.99571606988787</v>
+        <v>4.198769062511806</v>
       </c>
       <c r="J12">
-        <v>6.322527131445272</v>
+        <v>5.51213884435115</v>
       </c>
       <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
+        <v>7.538837551288863</v>
       </c>
       <c r="M12">
-        <v>20.69392389604618</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>14.64562597966047</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>7.666859870813576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.84645407318173</v>
+        <v>31.46427036809092</v>
       </c>
       <c r="C13">
-        <v>19.46818916748709</v>
+        <v>23.57129448094651</v>
       </c>
       <c r="D13">
-        <v>8.687241243790437</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>6.83378659308321</v>
       </c>
       <c r="F13">
-        <v>22.95623092248305</v>
+        <v>11.62742891235782</v>
       </c>
       <c r="G13">
-        <v>2.050084711136422</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>10.64457092777321</v>
       </c>
       <c r="I13">
-        <v>10.01132906808296</v>
+        <v>4.189818609958558</v>
       </c>
       <c r="J13">
-        <v>6.322663687068242</v>
+        <v>5.519814622040696</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
+        <v>7.557566777194919</v>
       </c>
       <c r="M13">
-        <v>20.63857636180346</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>14.63335910631443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>7.676053446582523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.61437683693883</v>
+        <v>31.19852810441306</v>
       </c>
       <c r="C14">
-        <v>19.30215318536061</v>
+        <v>23.39438630184846</v>
       </c>
       <c r="D14">
-        <v>8.63781267526705</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>6.782349259943564</v>
       </c>
       <c r="F14">
-        <v>22.84957784505714</v>
+        <v>11.5774930622187</v>
       </c>
       <c r="G14">
-        <v>2.051199327107549</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>10.58348331904797</v>
       </c>
       <c r="I14">
-        <v>10.06285957600825</v>
+        <v>4.161985015336931</v>
       </c>
       <c r="J14">
-        <v>6.323257525668614</v>
+        <v>5.541264579015817</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
+        <v>7.621689867079098</v>
       </c>
       <c r="M14">
-        <v>20.45717970543103</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>14.59404689050729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>7.696018905369504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.47131590763474</v>
+        <v>31.03453464670171</v>
       </c>
       <c r="C15">
-        <v>19.19981361866823</v>
+        <v>23.29686329728841</v>
       </c>
       <c r="D15">
-        <v>8.607483652026977</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>6.752385423304085</v>
       </c>
       <c r="F15">
-        <v>22.78477478852603</v>
+        <v>11.53967047643607</v>
       </c>
       <c r="G15">
-        <v>2.051883401183966</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>10.53307638131725</v>
       </c>
       <c r="I15">
-        <v>10.09488651449205</v>
+        <v>4.145697408790769</v>
       </c>
       <c r="J15">
-        <v>6.323734458763021</v>
+        <v>5.552610702590749</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
+        <v>7.662533883445342</v>
       </c>
       <c r="M15">
-        <v>20.34537893231001</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>14.57049642554146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>7.703249780396063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.63753342408623</v>
+        <v>30.07827276551119</v>
       </c>
       <c r="C16">
-        <v>18.60353545554111</v>
+        <v>22.65676291990829</v>
       </c>
       <c r="D16">
-        <v>8.43290446410742</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>6.566938974610278</v>
       </c>
       <c r="F16">
-        <v>22.42144930573514</v>
+        <v>11.37700992534213</v>
       </c>
       <c r="G16">
-        <v>2.055824885370247</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>10.3450924707427</v>
       </c>
       <c r="I16">
-        <v>10.28519432197779</v>
+        <v>4.047144644687017</v>
       </c>
       <c r="J16">
-        <v>6.328164852353275</v>
+        <v>5.631512157228893</v>
       </c>
       <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
+        <v>7.889559339128964</v>
       </c>
       <c r="M16">
-        <v>19.69406256120447</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>14.44352972488636</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>7.78482837478439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.11351899630713</v>
+        <v>29.47631506774671</v>
       </c>
       <c r="C17">
-        <v>18.22894495403969</v>
+        <v>22.2559319781231</v>
       </c>
       <c r="D17">
-        <v>8.325148686787692</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>6.450643190609016</v>
       </c>
       <c r="F17">
-        <v>22.20571460575214</v>
+        <v>11.28254022231796</v>
       </c>
       <c r="G17">
-        <v>2.058262739931656</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>10.24176325112373</v>
       </c>
       <c r="I17">
-        <v>10.40765495185571</v>
+        <v>3.986361463263267</v>
       </c>
       <c r="J17">
-        <v>6.332356990261316</v>
+        <v>5.681431473075039</v>
       </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
+        <v>8.030682820474494</v>
       </c>
       <c r="M17">
-        <v>19.28495685551903</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>14.37263258740071</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>7.839913173551384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.80749684455204</v>
+        <v>29.12472580508897</v>
       </c>
       <c r="C18">
-        <v>18.01024455589072</v>
+        <v>21.9917834335378</v>
       </c>
       <c r="D18">
-        <v>8.262943777847022</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>6.378202005562253</v>
       </c>
       <c r="F18">
-        <v>22.08425140613972</v>
+        <v>11.25012479492844</v>
       </c>
       <c r="G18">
-        <v>2.059672562375422</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>10.22325966548864</v>
       </c>
       <c r="I18">
-        <v>10.48006636702803</v>
+        <v>3.948858691410926</v>
       </c>
       <c r="J18">
-        <v>6.335294252875888</v>
+        <v>5.715464387852967</v>
       </c>
       <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
+        <v>8.109319826367841</v>
       </c>
       <c r="M18">
-        <v>19.04612027916446</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>14.33436757447922</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>7.886903715727281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.70308686534582</v>
+        <v>29.0044934993276</v>
       </c>
       <c r="C19">
-        <v>17.93563758831905</v>
+        <v>21.92540356376061</v>
       </c>
       <c r="D19">
-        <v>8.241844831784899</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>6.357074714925131</v>
       </c>
       <c r="F19">
-        <v>22.04357552633265</v>
+        <v>11.22409491331371</v>
       </c>
       <c r="G19">
-        <v>2.06015124515957</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>10.18959324510381</v>
       </c>
       <c r="I19">
-        <v>10.50491177245077</v>
+        <v>3.937939912582344</v>
       </c>
       <c r="J19">
-        <v>6.336377642026372</v>
+        <v>5.723383824226827</v>
       </c>
       <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
+        <v>8.138530414989868</v>
       </c>
       <c r="M19">
-        <v>18.96464600408794</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>14.32183777685249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>7.892648451220172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.16977916559738</v>
+        <v>29.54100031132986</v>
       </c>
       <c r="C20">
-        <v>18.2691563733896</v>
+        <v>22.29653261088628</v>
       </c>
       <c r="D20">
-        <v>8.336643278622377</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>6.462760033639752</v>
       </c>
       <c r="F20">
-        <v>22.22840841411804</v>
+        <v>11.29395333408345</v>
       </c>
       <c r="G20">
-        <v>2.058002443386693</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>10.25515726874636</v>
       </c>
       <c r="I20">
-        <v>10.39441168970648</v>
+        <v>3.992650032287605</v>
       </c>
       <c r="J20">
-        <v>6.331855934821625</v>
+        <v>5.676438082588167</v>
       </c>
       <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
+        <v>8.015329622391965</v>
       </c>
       <c r="M20">
-        <v>19.32887168170411</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>14.37991829802643</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>7.834931482278654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.68273240837757</v>
+        <v>31.27652606715265</v>
       </c>
       <c r="C21">
-        <v>19.35105479079481</v>
+        <v>23.47872104364355</v>
       </c>
       <c r="D21">
-        <v>8.652342075166404</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>6.802370773671227</v>
       </c>
       <c r="F21">
-        <v>22.88079499445964</v>
+        <v>11.57053063120063</v>
       </c>
       <c r="G21">
-        <v>2.050871660150544</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>10.56211314377361</v>
       </c>
       <c r="I21">
-        <v>10.04762652791258</v>
+        <v>4.172437374507679</v>
       </c>
       <c r="J21">
-        <v>6.323059421382964</v>
+        <v>5.52950089628198</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
+        <v>7.606980444053618</v>
       </c>
       <c r="M21">
-        <v>20.51060398163604</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>14.60548322636765</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>7.674714960126439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.63087910933449</v>
+        <v>32.36119862410842</v>
       </c>
       <c r="C22">
-        <v>20.029554515593</v>
+        <v>24.18362800626045</v>
       </c>
       <c r="D22">
-        <v>8.856353793380878</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>7.009834449009343</v>
       </c>
       <c r="F22">
-        <v>23.3306496112003</v>
+        <v>11.79604186505762</v>
       </c>
       <c r="G22">
-        <v>2.046272130396637</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>10.85157491567893</v>
       </c>
       <c r="I22">
-        <v>9.841360679524621</v>
+        <v>4.285930847542823</v>
       </c>
       <c r="J22">
-        <v>6.322333806841731</v>
+        <v>5.445619004603559</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
+        <v>7.341005095632896</v>
       </c>
       <c r="M22">
-        <v>21.2519869558151</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>14.77644845145195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>7.607184615264831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.12852947021901</v>
+        <v>31.78718921999254</v>
       </c>
       <c r="C23">
-        <v>19.67002511984446</v>
+        <v>23.77134358519585</v>
       </c>
       <c r="D23">
-        <v>8.747693720834206</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>6.894044794993484</v>
       </c>
       <c r="F23">
-        <v>23.08839974018669</v>
+        <v>11.69991348189374</v>
       </c>
       <c r="G23">
-        <v>2.048721778663164</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>10.74031166040259</v>
       </c>
       <c r="I23">
-        <v>9.949436374682543</v>
+        <v>4.223019014489839</v>
       </c>
       <c r="J23">
-        <v>6.322244617754198</v>
+        <v>5.496464531643287</v>
       </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
+        <v>7.477310924267436</v>
       </c>
       <c r="M23">
-        <v>20.85910423708484</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>14.68299334514951</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>7.660064895640362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.14435877265566</v>
+        <v>29.51237033475624</v>
       </c>
       <c r="C24">
-        <v>18.25098720781933</v>
+        <v>22.21407059871387</v>
       </c>
       <c r="D24">
-        <v>8.331447363416467</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>6.447600474597093</v>
       </c>
       <c r="F24">
-        <v>22.21814055391482</v>
+        <v>11.33082624507506</v>
       </c>
       <c r="G24">
-        <v>2.058120097626656</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>10.32594398000876</v>
       </c>
       <c r="I24">
-        <v>10.40039274589885</v>
+        <v>3.985442572011871</v>
       </c>
       <c r="J24">
-        <v>6.332080823747638</v>
+        <v>5.688862956097045</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
+        <v>8.015436796588835</v>
       </c>
       <c r="M24">
-        <v>19.30902912017583</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>14.37661667119378</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>7.865962853537218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.82711798864317</v>
+        <v>26.84280225820801</v>
       </c>
       <c r="C25">
-        <v>16.59609875756334</v>
+        <v>20.41235414476718</v>
       </c>
       <c r="D25">
-        <v>7.874040670224182</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>5.929429206898395</v>
       </c>
       <c r="F25">
-        <v>21.37946525196134</v>
+        <v>11.0101514122822</v>
       </c>
       <c r="G25">
-        <v>2.068553105696142</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>10.05095821587421</v>
       </c>
       <c r="I25">
-        <v>10.9612453700295</v>
+        <v>3.722604968300537</v>
       </c>
       <c r="J25">
-        <v>6.362620958250702</v>
+        <v>5.916938437375952</v>
       </c>
       <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
+        <v>8.622263566514231</v>
       </c>
       <c r="M25">
-        <v>17.54390080759064</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>14.14137423627733</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>8.154809190518154</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,917 +421,1067 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.69122758734806</v>
+        <v>24.66946167253378</v>
       </c>
       <c r="C2">
-        <v>18.87021428123876</v>
+        <v>18.54230841096651</v>
       </c>
       <c r="D2">
-        <v>5.499872805088585</v>
+        <v>5.477037405540016</v>
       </c>
       <c r="F2">
-        <v>10.90632865994127</v>
+        <v>11.18390331089022</v>
       </c>
       <c r="G2">
-        <v>10.1100063985381</v>
+        <v>9.704275604770787</v>
       </c>
       <c r="I2">
-        <v>3.518165666446408</v>
+        <v>3.478987963081794</v>
       </c>
       <c r="J2">
-        <v>6.115784190800543</v>
+        <v>7.011721649301722</v>
       </c>
       <c r="K2">
-        <v>9.084548269880715</v>
+        <v>9.181905796863306</v>
+      </c>
+      <c r="L2">
+        <v>8.947910799664575</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>8.457872999541939</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>4.736669364841548</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>8.699686897764069</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.1152335824359</v>
+        <v>23.10173813468467</v>
       </c>
       <c r="C3">
-        <v>17.82309758622059</v>
+        <v>17.44218178542346</v>
       </c>
       <c r="D3">
-        <v>5.198909794980528</v>
+        <v>5.167787175783625</v>
       </c>
       <c r="F3">
-        <v>10.83478278366908</v>
+        <v>11.11756427204797</v>
       </c>
       <c r="G3">
-        <v>10.15527201114178</v>
+        <v>9.699897773876973</v>
       </c>
       <c r="I3">
-        <v>3.377632748291989</v>
+        <v>3.354120217464779</v>
       </c>
       <c r="J3">
-        <v>6.250557138222201</v>
+        <v>7.105474486632291</v>
       </c>
       <c r="K3">
-        <v>9.415810154425289</v>
+        <v>9.481629831269778</v>
+      </c>
+      <c r="L3">
+        <v>9.116263915543216</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>8.663251723350298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>5.106352062038908</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>8.892158532662634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.08966087804811</v>
+        <v>22.08154244739376</v>
       </c>
       <c r="C4">
-        <v>17.15207346211393</v>
+        <v>16.736668335386</v>
       </c>
       <c r="D4">
-        <v>5.005237448294435</v>
+        <v>4.968759828012066</v>
       </c>
       <c r="F4">
-        <v>10.80714914454837</v>
+        <v>11.08999670877829</v>
       </c>
       <c r="G4">
-        <v>10.21472444544177</v>
+        <v>9.729141424076191</v>
       </c>
       <c r="I4">
-        <v>3.289136372582561</v>
+        <v>3.275611009966285</v>
       </c>
       <c r="J4">
-        <v>6.337218037026071</v>
+        <v>7.165187280097553</v>
       </c>
       <c r="K4">
-        <v>9.625848832293753</v>
+        <v>9.672109887950104</v>
+      </c>
+      <c r="L4">
+        <v>9.235189852564298</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>8.799772074489361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>5.344048814098141</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>9.018825419168468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.65702612615905</v>
+        <v>21.65118417545036</v>
       </c>
       <c r="C5">
-        <v>16.88478707003821</v>
+        <v>16.45453616689597</v>
       </c>
       <c r="D5">
-        <v>4.926084023273658</v>
+        <v>4.887295124961734</v>
       </c>
       <c r="F5">
-        <v>10.79256160454871</v>
+        <v>11.07479898925783</v>
       </c>
       <c r="G5">
-        <v>10.23342025805051</v>
+        <v>9.734783743328363</v>
       </c>
       <c r="I5">
-        <v>3.252854837113028</v>
+        <v>3.243721785876184</v>
       </c>
       <c r="J5">
-        <v>6.371916301721598</v>
+        <v>7.188529580889343</v>
       </c>
       <c r="K5">
-        <v>9.713444341317388</v>
+        <v>9.751253369971177</v>
+      </c>
+      <c r="L5">
+        <v>9.28542254969013</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>8.853510120681714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>5.446460067255506</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>9.068086655930884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.58411907957123</v>
+        <v>21.57865878717396</v>
       </c>
       <c r="C6">
-        <v>16.85598848142383</v>
+        <v>16.42284156731179</v>
       </c>
       <c r="D6">
-        <v>4.915214147194553</v>
+        <v>4.875956135582496</v>
       </c>
       <c r="F6">
-        <v>10.78148009354945</v>
+        <v>11.06373120850509</v>
       </c>
       <c r="G6">
-        <v>10.22116040616329</v>
+        <v>9.719365447295294</v>
       </c>
       <c r="I6">
-        <v>3.247392004095375</v>
+        <v>3.239308956312215</v>
       </c>
       <c r="J6">
-        <v>6.375813360008975</v>
+        <v>7.190575959123533</v>
       </c>
       <c r="K6">
-        <v>9.728531204845906</v>
+        <v>9.764414754407362</v>
+      </c>
+      <c r="L6">
+        <v>9.291537608036755</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>8.857258562185338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>5.467108429174139</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>9.071049557626553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.08338571581673</v>
+        <v>22.07503350142674</v>
       </c>
       <c r="C7">
-        <v>17.19136179196767</v>
+        <v>16.76884211391981</v>
       </c>
       <c r="D7">
-        <v>5.010626570616592</v>
+        <v>4.977823415250867</v>
       </c>
       <c r="F7">
-        <v>10.7826997175775</v>
+        <v>11.05229580832837</v>
       </c>
       <c r="G7">
-        <v>10.17168860254186</v>
+        <v>9.770955924107696</v>
       </c>
       <c r="I7">
-        <v>3.290014958978816</v>
+        <v>3.276889452962333</v>
       </c>
       <c r="J7">
-        <v>6.332422190083954</v>
+        <v>7.136183043917191</v>
       </c>
       <c r="K7">
-        <v>9.628361286756263</v>
+        <v>9.673568603988098</v>
+      </c>
+      <c r="L7">
+        <v>9.227962832693263</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>8.785883919125848</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>5.35789444675576</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>8.996850157171234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.15926712109112</v>
+        <v>24.13952490301597</v>
       </c>
       <c r="C8">
-        <v>18.56826750261889</v>
+        <v>18.20313250666513</v>
       </c>
       <c r="D8">
-        <v>5.405976102136894</v>
+        <v>5.392310185113694</v>
       </c>
       <c r="F8">
-        <v>10.84648701725666</v>
+        <v>11.0821979302715</v>
       </c>
       <c r="G8">
-        <v>10.06131786115268</v>
+        <v>9.92781872476778</v>
       </c>
       <c r="I8">
-        <v>3.471679702953527</v>
+        <v>3.437398113033995</v>
       </c>
       <c r="J8">
-        <v>6.154406115618198</v>
+        <v>6.958533602817806</v>
       </c>
       <c r="K8">
-        <v>9.199879454904821</v>
+        <v>9.28718341875464</v>
+      </c>
+      <c r="L8">
+        <v>8.994155169047179</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>8.506762332029453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>4.88156560442695</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>8.717773880662332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.77167132116209</v>
+        <v>27.73244826918365</v>
       </c>
       <c r="C9">
-        <v>20.97048364288195</v>
+        <v>20.72477671159782</v>
       </c>
       <c r="D9">
-        <v>6.09903589322345</v>
+        <v>6.106493223579765</v>
       </c>
       <c r="F9">
-        <v>11.14954862440121</v>
+        <v>11.34296100201875</v>
       </c>
       <c r="G9">
-        <v>10.19738689862066</v>
+        <v>10.25962830818537</v>
       </c>
       <c r="I9">
-        <v>3.809263442827805</v>
+        <v>3.736764569753528</v>
       </c>
       <c r="J9">
-        <v>5.847267538030924</v>
+        <v>6.71931980652072</v>
       </c>
       <c r="K9">
-        <v>8.40908374426251</v>
+        <v>8.578351316721097</v>
+      </c>
+      <c r="L9">
+        <v>8.676553719388199</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>8.076957077276374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>4.006050678528887</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>8.299144807334836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.14705455348847</v>
+        <v>30.09311606332554</v>
       </c>
       <c r="C10">
-        <v>22.6091411499475</v>
+        <v>22.41360109557984</v>
       </c>
       <c r="D10">
-        <v>6.566037826583941</v>
+        <v>6.605558065919903</v>
       </c>
       <c r="F10">
-        <v>11.44948053750797</v>
+        <v>11.52178121281161</v>
       </c>
       <c r="G10">
-        <v>10.46957062593708</v>
+        <v>11.14203281655288</v>
       </c>
       <c r="I10">
-        <v>4.048709996305804</v>
+        <v>3.948167113804325</v>
       </c>
       <c r="J10">
-        <v>5.640988349318244</v>
+        <v>6.423912471885057</v>
       </c>
       <c r="K10">
-        <v>7.863164129003426</v>
+        <v>8.101217426529326</v>
+      </c>
+      <c r="L10">
+        <v>8.533807674868456</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>7.821488266412717</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>3.425048302350419</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>7.988677606819312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.16723482728387</v>
+        <v>31.10497984674054</v>
       </c>
       <c r="C11">
-        <v>23.37565188590745</v>
+        <v>23.15463614897473</v>
       </c>
       <c r="D11">
-        <v>6.776612070510164</v>
+        <v>6.861095617828612</v>
       </c>
       <c r="F11">
-        <v>11.57031562036538</v>
+        <v>11.45443906980242</v>
       </c>
       <c r="G11">
-        <v>10.5739364961896</v>
+        <v>12.33878713382955</v>
       </c>
       <c r="I11">
-        <v>4.158856962752259</v>
+        <v>4.044096531413855</v>
       </c>
       <c r="J11">
-        <v>5.5434456132189</v>
+        <v>6.114481344940103</v>
       </c>
       <c r="K11">
-        <v>7.629479441870115</v>
+        <v>7.91832846574875</v>
+      </c>
+      <c r="L11">
+        <v>8.508553636406889</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>7.697430207924411</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>3.191607099656978</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>7.748239448343404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.5452508320383</v>
+        <v>31.47969993560576</v>
       </c>
       <c r="C12">
-        <v>23.63203356462448</v>
+        <v>23.39679908797657</v>
       </c>
       <c r="D12">
-        <v>6.850502676787583</v>
+        <v>6.955667808027973</v>
       </c>
       <c r="F12">
-        <v>11.63838665135244</v>
+        <v>11.4339980845552</v>
       </c>
       <c r="G12">
-        <v>10.65547391163816</v>
+        <v>12.92710768677007</v>
       </c>
       <c r="I12">
-        <v>4.198769062511806</v>
+        <v>4.077642510969814</v>
       </c>
       <c r="J12">
-        <v>5.51213884435115</v>
+        <v>6.004448485064938</v>
       </c>
       <c r="K12">
-        <v>7.538837551288863</v>
+        <v>7.850875206558594</v>
+      </c>
+      <c r="L12">
+        <v>8.503598373234103</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>7.666859870813576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>3.102584814079804</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>7.660410986910332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.46427036809092</v>
+        <v>31.39943453083098</v>
       </c>
       <c r="C13">
-        <v>23.57129448094651</v>
+        <v>23.33950816437025</v>
       </c>
       <c r="D13">
-        <v>6.83378659308321</v>
+        <v>6.934365984090888</v>
       </c>
       <c r="F13">
-        <v>11.62742891235782</v>
+        <v>11.44269909464825</v>
       </c>
       <c r="G13">
-        <v>10.64457092777321</v>
+        <v>12.80283683235055</v>
       </c>
       <c r="I13">
-        <v>4.189818609958558</v>
+        <v>4.06990864847338</v>
       </c>
       <c r="J13">
-        <v>5.519814622040696</v>
+        <v>6.027834113787716</v>
       </c>
       <c r="K13">
-        <v>7.557566777194919</v>
+        <v>7.864346547213573</v>
+      </c>
+      <c r="L13">
+        <v>8.503766997603979</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>7.676053446582523</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>3.120927269145269</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>7.682308979662107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.19852810441306</v>
+        <v>31.1360044313752</v>
       </c>
       <c r="C14">
-        <v>23.39438630184846</v>
+        <v>23.17237112800295</v>
       </c>
       <c r="D14">
-        <v>6.782349259943564</v>
+        <v>6.868474610490746</v>
       </c>
       <c r="F14">
-        <v>11.5774930622187</v>
+        <v>11.45460664378447</v>
       </c>
       <c r="G14">
-        <v>10.58348331904797</v>
+        <v>12.38812807440004</v>
       </c>
       <c r="I14">
-        <v>4.161985015336931</v>
+        <v>4.046634467684682</v>
       </c>
       <c r="J14">
-        <v>5.541264579015817</v>
+        <v>6.10536525344947</v>
       </c>
       <c r="K14">
-        <v>7.621689867079098</v>
+        <v>7.91234407263315</v>
+      </c>
+      <c r="L14">
+        <v>8.507777933991594</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>7.696018905369504</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>3.18392824380618</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>7.742294078098594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.03453464670171</v>
+        <v>30.97341043802894</v>
       </c>
       <c r="C15">
-        <v>23.29686329728841</v>
+        <v>23.07984452050548</v>
       </c>
       <c r="D15">
-        <v>6.752385423304085</v>
+        <v>6.83006411884922</v>
       </c>
       <c r="F15">
-        <v>11.53967047643607</v>
+        <v>11.45278243650188</v>
       </c>
       <c r="G15">
-        <v>10.53307638131725</v>
+        <v>12.13337437861549</v>
       </c>
       <c r="I15">
-        <v>4.145697408790769</v>
+        <v>4.033450149861641</v>
       </c>
       <c r="J15">
-        <v>5.552610702590749</v>
+        <v>6.153253128419291</v>
       </c>
       <c r="K15">
-        <v>7.662533883445342</v>
+        <v>7.943880089839865</v>
+      </c>
+      <c r="L15">
+        <v>8.512106842480389</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>7.703249780396063</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>3.224275709594682</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>7.77272915692796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.07827276551119</v>
+        <v>30.02485863507057</v>
       </c>
       <c r="C16">
-        <v>22.65676291990829</v>
+        <v>22.45959716485427</v>
       </c>
       <c r="D16">
-        <v>6.566938974610278</v>
+        <v>6.603553505559606</v>
       </c>
       <c r="F16">
-        <v>11.37700992534213</v>
+        <v>11.46170127304341</v>
       </c>
       <c r="G16">
-        <v>10.3450924707427</v>
+        <v>10.96019549818598</v>
       </c>
       <c r="I16">
-        <v>4.047144644687017</v>
+        <v>3.950094277582603</v>
       </c>
       <c r="J16">
-        <v>5.631512157228893</v>
+        <v>6.431341078203724</v>
       </c>
       <c r="K16">
-        <v>7.889559339128964</v>
+        <v>8.123937796656497</v>
+      </c>
+      <c r="L16">
+        <v>8.542150503493746</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>7.78482837478439</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>3.452377688448746</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>7.96035285577744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.47631506774671</v>
+        <v>29.42732642788056</v>
       </c>
       <c r="C17">
-        <v>22.2559319781231</v>
+        <v>22.06131057020419</v>
       </c>
       <c r="D17">
-        <v>6.450643190609016</v>
+        <v>6.46832980723558</v>
       </c>
       <c r="F17">
-        <v>11.28254022231796</v>
+        <v>11.44372688636627</v>
       </c>
       <c r="G17">
-        <v>10.24176325112373</v>
+        <v>10.42098074840869</v>
       </c>
       <c r="I17">
-        <v>3.986361463263267</v>
+        <v>3.898137698561433</v>
       </c>
       <c r="J17">
-        <v>5.681431473075039</v>
+        <v>6.579001717226491</v>
       </c>
       <c r="K17">
-        <v>8.030682820474494</v>
+        <v>8.241344625183945</v>
+      </c>
+      <c r="L17">
+        <v>8.569954524237602</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>7.839913173551384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>3.597685251090037</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>8.059616882574787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.12472580508897</v>
+        <v>29.07816033586346</v>
       </c>
       <c r="C18">
-        <v>21.9917834335378</v>
+        <v>21.79583129563315</v>
       </c>
       <c r="D18">
-        <v>6.378202005562253</v>
+        <v>6.387448180944165</v>
       </c>
       <c r="F18">
-        <v>11.25012479492844</v>
+        <v>11.4443044527192</v>
       </c>
       <c r="G18">
-        <v>10.22325966548864</v>
+        <v>10.21373631572174</v>
       </c>
       <c r="I18">
-        <v>3.948858691410926</v>
+        <v>3.86455760805295</v>
       </c>
       <c r="J18">
-        <v>5.715464387852967</v>
+        <v>6.653945274636476</v>
       </c>
       <c r="K18">
-        <v>8.109319826367841</v>
+        <v>8.308394482989637</v>
+      </c>
+      <c r="L18">
+        <v>8.587840147592727</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>7.886903715727281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>3.679409794319489</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>8.124216315386827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.0044934993276</v>
+        <v>28.95872740323078</v>
       </c>
       <c r="C19">
-        <v>21.92540356376061</v>
+        <v>21.72778507858922</v>
       </c>
       <c r="D19">
-        <v>6.357074714925131</v>
+        <v>6.363743148298298</v>
       </c>
       <c r="F19">
-        <v>11.22409491331371</v>
+        <v>11.42823776427697</v>
       </c>
       <c r="G19">
-        <v>10.18959324510381</v>
+        <v>10.12673953267007</v>
       </c>
       <c r="I19">
-        <v>3.937939912582344</v>
+        <v>3.855648741780866</v>
       </c>
       <c r="J19">
-        <v>5.723383824226827</v>
+        <v>6.673460203005035</v>
       </c>
       <c r="K19">
-        <v>8.138530414989868</v>
+        <v>8.33349537685954</v>
+      </c>
+      <c r="L19">
+        <v>8.595187201534769</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>7.892648451220172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>3.710494831991027</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>8.135164433251804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.54100031132986</v>
+        <v>29.49155292581806</v>
       </c>
       <c r="C20">
-        <v>22.29653261088628</v>
+        <v>22.10207043033133</v>
       </c>
       <c r="D20">
-        <v>6.462760033639752</v>
+        <v>6.482234975043855</v>
       </c>
       <c r="F20">
-        <v>11.29395333408345</v>
+        <v>11.44801545176976</v>
       </c>
       <c r="G20">
-        <v>10.25515726874636</v>
+        <v>10.47434912050785</v>
       </c>
       <c r="I20">
-        <v>3.992650032287605</v>
+        <v>3.903431600623161</v>
       </c>
       <c r="J20">
-        <v>5.676438082588167</v>
+        <v>6.564952854302766</v>
       </c>
       <c r="K20">
-        <v>8.015329622391965</v>
+        <v>8.228388876730589</v>
+      </c>
+      <c r="L20">
+        <v>8.566573306603214</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>7.834931482278654</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>3.581697350028484</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>8.050642704605645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.27652606715265</v>
+        <v>31.21274896526872</v>
       </c>
       <c r="C21">
-        <v>23.47872104364355</v>
+        <v>23.2371470214356</v>
       </c>
       <c r="D21">
-        <v>6.802370773671227</v>
+        <v>6.903671291643304</v>
       </c>
       <c r="F21">
-        <v>11.57053063120063</v>
+        <v>11.38390562278147</v>
       </c>
       <c r="G21">
-        <v>10.56211314377361</v>
+        <v>12.7629086226835</v>
       </c>
       <c r="I21">
-        <v>4.172437374507679</v>
+        <v>4.055609460381636</v>
       </c>
       <c r="J21">
-        <v>5.52950089628198</v>
+        <v>6.034623729385123</v>
       </c>
       <c r="K21">
-        <v>7.606980444053618</v>
+        <v>7.909379424516633</v>
+      </c>
+      <c r="L21">
+        <v>8.514071264805342</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>7.674714960126439</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>3.175694988269025</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>7.679486443424942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.36119862410842</v>
+        <v>32.28819758934888</v>
       </c>
       <c r="C22">
-        <v>24.18362800626045</v>
+        <v>23.907839961908</v>
       </c>
       <c r="D22">
-        <v>7.009834449009343</v>
+        <v>7.166818277232215</v>
       </c>
       <c r="F22">
-        <v>11.79604186505762</v>
+        <v>11.36655633087638</v>
       </c>
       <c r="G22">
-        <v>10.85157491567893</v>
+        <v>14.42294100547185</v>
       </c>
       <c r="I22">
-        <v>4.285930847542823</v>
+        <v>4.150406630221566</v>
       </c>
       <c r="J22">
-        <v>5.445619004603559</v>
+        <v>5.813941671268433</v>
       </c>
       <c r="K22">
-        <v>7.341005095632896</v>
+        <v>7.712417555242554</v>
+      </c>
+      <c r="L22">
+        <v>8.505532366091877</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>7.607184615264831</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>2.911432163015536</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>7.450902071684798</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.78718921999254</v>
+        <v>31.71947431681931</v>
       </c>
       <c r="C23">
-        <v>23.77134358519585</v>
+        <v>23.52614039591862</v>
       </c>
       <c r="D23">
-        <v>6.894044794993484</v>
+        <v>7.013642409065487</v>
       </c>
       <c r="F23">
-        <v>11.69991348189374</v>
+        <v>11.43306743862728</v>
       </c>
       <c r="G23">
-        <v>10.74031166040259</v>
+        <v>13.36396913835404</v>
       </c>
       <c r="I23">
-        <v>4.223019014489839</v>
+        <v>4.097047249649962</v>
       </c>
       <c r="J23">
-        <v>5.496464531643287</v>
+        <v>5.940707543252715</v>
       </c>
       <c r="K23">
-        <v>7.477310924267436</v>
+        <v>7.805067417584169</v>
+      </c>
+      <c r="L23">
+        <v>8.499558272884753</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>7.660064895640362</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>3.042774710848426</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>7.612092909818803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.51237033475624</v>
+        <v>29.46312912920687</v>
       </c>
       <c r="C24">
-        <v>22.21407059871387</v>
+        <v>22.02118611110458</v>
       </c>
       <c r="D24">
-        <v>6.447600474597093</v>
+        <v>6.466566959703093</v>
       </c>
       <c r="F24">
-        <v>11.33082624507506</v>
+        <v>11.48665491086065</v>
       </c>
       <c r="G24">
-        <v>10.32594398000876</v>
+        <v>10.5267114162618</v>
       </c>
       <c r="I24">
-        <v>3.985442572011871</v>
+        <v>3.894837008342569</v>
       </c>
       <c r="J24">
-        <v>5.688862956097045</v>
+        <v>6.579615675955653</v>
       </c>
       <c r="K24">
-        <v>8.015436796588835</v>
+        <v>8.22836320383985</v>
+      </c>
+      <c r="L24">
+        <v>8.565337808480553</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>7.865962853537218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>3.580945037014222</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>8.082190114815436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.84280225820801</v>
+        <v>26.80899262032401</v>
       </c>
       <c r="C25">
-        <v>20.41235414476718</v>
+        <v>20.14159272576086</v>
       </c>
       <c r="D25">
-        <v>5.929429206898395</v>
+        <v>5.926275422313931</v>
       </c>
       <c r="F25">
-        <v>11.0101514122822</v>
+        <v>11.23805772719698</v>
       </c>
       <c r="G25">
-        <v>10.05095821587421</v>
+        <v>9.937560299916276</v>
       </c>
       <c r="I25">
-        <v>3.722604968300537</v>
+        <v>3.662199079681584</v>
       </c>
       <c r="J25">
-        <v>5.916938437375952</v>
+        <v>6.806852514665279</v>
       </c>
       <c r="K25">
-        <v>8.622263566514231</v>
+        <v>8.766564230653676</v>
+      </c>
+      <c r="L25">
+        <v>8.746792843297371</v>
       </c>
       <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>8.154809190518154</v>
+        <v>4.24098414931088</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>8.388901261095164</v>
       </c>
     </row>
   </sheetData>
